--- a/sync/xlsx/locawebcommerce.xlsx
+++ b/sync/xlsx/locawebcommerce.xlsx
@@ -5,18 +5,20 @@
   <sheets>
     <sheet state="visible" name="GERAL LW commerce" sheetId="1" r:id="rId4"/>
   </sheets>
-  <definedNames/>
+  <definedNames>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'GERAL LW commerce'!$A$1:$E$412</definedName>
+  </definedNames>
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mjok0ZApS0Del6dxPDDQjFeYCXlQw=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7miTl7Wpd8jBYx+e7B4FIpFanlA0vw=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1646" uniqueCount="1239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1646" uniqueCount="1238">
   <si>
     <t>Sorteio Locaweb Commerce</t>
   </si>
@@ -42,7 +44,7 @@
     <t>JAMILE CRISTIANE POPADIUK RAZERA</t>
   </si>
   <si>
-    <t>locawebcommerce-1</t>
+    <t>JamilePopadiuk</t>
   </si>
   <si>
     <t>JAMILE.POPADIUK@TRAYCORP.COM.BR</t>
@@ -51,7 +53,7 @@
     <t>ABNER MATHEUS DE QUEIROZ DE JESUS</t>
   </si>
   <si>
-    <t>locawebcommerce-2</t>
+    <t>AbnerMatheusdeQueirozdeJesuz</t>
   </si>
   <si>
     <t>ABNER.JESUZ@TRAYCORP.COM.BR</t>
@@ -60,7 +62,7 @@
     <t>ALYSSON RODRIGO SILVA</t>
   </si>
   <si>
-    <t>locawebcommerce-3</t>
+    <t>AlyssonSilva</t>
   </si>
   <si>
     <t>ALYSSON.SILVA@TRAYCORP.COM.BR</t>
@@ -69,7 +71,7 @@
     <t>AMANDA TASCIANI MAGGI DO NASCIMENTO</t>
   </si>
   <si>
-    <t>locawebcommerce-4</t>
+    <t>AmandaTascianiMaggidoNascimento</t>
   </si>
   <si>
     <t>AMANDA.NASCIMENTO@TRAYCORP.COM.BR</t>
@@ -78,7 +80,7 @@
     <t>ANDREA CRISTINA ROLIM FERRO</t>
   </si>
   <si>
-    <t>locawebcommerce-5</t>
+    <t>AndreaCristinaRolimFerro</t>
   </si>
   <si>
     <t>ANDREA.FERRO@TRAYCORP.COM.BR</t>
@@ -87,7 +89,7 @@
     <t>ANTONIO KLEBER AVENOR</t>
   </si>
   <si>
-    <t>locawebcommerce-6</t>
+    <t>AntonioAvenor</t>
   </si>
   <si>
     <t>ANTONIO.AVENOR@TRAYCORP.COM.BR</t>
@@ -96,7 +98,7 @@
     <t>ANTONIO OLIVEIRA DE MELO</t>
   </si>
   <si>
-    <t>locawebcommerce-7</t>
+    <t>AntonioMelo</t>
   </si>
   <si>
     <t>ANTONIO.MELO@TRAYCORP.COM.BR</t>
@@ -105,7 +107,7 @@
     <t>BARBARA CRISTINA ELIAS DE FARIAS</t>
   </si>
   <si>
-    <t>locawebcommerce-8</t>
+    <t>BarbaraFarias</t>
   </si>
   <si>
     <t>BARBARA.FARIAS@TRAYCORP.COM.BR</t>
@@ -114,7 +116,7 @@
     <t>BRUNO CEZAR COELHO</t>
   </si>
   <si>
-    <t>locawebcommerce-9</t>
+    <t>BrunoCoelho</t>
   </si>
   <si>
     <t>BRUNO.COELHO@TRAYCORP.COM.BR</t>
@@ -123,7 +125,7 @@
     <t>BRUNO DAL NEGRO</t>
   </si>
   <si>
-    <t>locawebcommerce-10</t>
+    <t>BrunoNegro</t>
   </si>
   <si>
     <t>BRUNO.NEGRO@TRAYCORP.COM.BR</t>
@@ -132,7 +134,7 @@
     <t>BRUNO MAGALHÃES PRATES PEREIRA</t>
   </si>
   <si>
-    <t>locawebcommerce-11</t>
+    <t>BrunoMagalhãesPratesPereira</t>
   </si>
   <si>
     <t>BRUNO.PEREIRA@TRAYCORP.COM.BR</t>
@@ -141,7 +143,7 @@
     <t>BRUNO SANTOLIN DORNELLES FRANCO</t>
   </si>
   <si>
-    <t>locawebcommerce-12</t>
+    <t>BrunoSantolinDornellesFranco</t>
   </si>
   <si>
     <t>BRUNO.FRANCO@TRAYCORP.COM.BR</t>
@@ -150,7 +152,7 @@
     <t>CAROLINE MANTOVANI GUERREIRO</t>
   </si>
   <si>
-    <t>locawebcommerce-13</t>
+    <t>CarolineGuerreiro</t>
   </si>
   <si>
     <t>CAROLINE.GUERREIRO@TRAYCORP.COM.BR</t>
@@ -159,7 +161,7 @@
     <t>DAIANA ELIANA SANTOS</t>
   </si>
   <si>
-    <t>locawebcommerce-14</t>
+    <t>DaianaSantos</t>
   </si>
   <si>
     <t>DAIANA.SANTOS@TRAYCORP.COM.BR</t>
@@ -168,7 +170,7 @@
     <t>DIEGO DE OLIVEIRA AZEVEDO</t>
   </si>
   <si>
-    <t>locawebcommerce-15</t>
+    <t>DiegodeAzevedo</t>
   </si>
   <si>
     <t>DIEGO.AZEVEDO@TRAYCORP.COM.BR</t>
@@ -177,7 +179,7 @@
     <t>EDUARDO PRESTES HORTENCIO</t>
   </si>
   <si>
-    <t>locawebcommerce-16</t>
+    <t>EduardoHortencio</t>
   </si>
   <si>
     <t>EDUARDO.HORTENCIO@TRAYCORP.COM.BR</t>
@@ -186,7 +188,7 @@
     <t>EVANDRO WELUPEK</t>
   </si>
   <si>
-    <t>locawebcommerce-17</t>
+    <t>EvandroWelupek</t>
   </si>
   <si>
     <t>EVANDRO.WELUPEK@TRAYCORP.COM.BR</t>
@@ -195,7 +197,7 @@
     <t>FELIPE CONTIN SAMPAIO</t>
   </si>
   <si>
-    <t>locawebcommerce-18</t>
+    <t>FelipeSampaio</t>
   </si>
   <si>
     <t>FELIPE.SAMPAIO@TRAYCORP.COM.BR</t>
@@ -204,7 +206,7 @@
     <t>FERNANDO CAVA ZAMBRANO</t>
   </si>
   <si>
-    <t>locawebcommerce-19</t>
+    <t>FernandoZambrano</t>
   </si>
   <si>
     <t>FERNANDO.ZAMBRANO@TRAYCORP.COM.BR</t>
@@ -213,7 +215,7 @@
     <t>FRANCIELE WORELL OSTEVALD</t>
   </si>
   <si>
-    <t>locawebcommerce-20</t>
+    <t>FrancieleWorell</t>
   </si>
   <si>
     <t>FRANCIELE.WORELL@TRAYCORP.COM.BR</t>
@@ -222,7 +224,7 @@
     <t>FRANCIELLE RIBEIRO DOS SANTOS</t>
   </si>
   <si>
-    <t>locawebcommerce-21</t>
+    <t>FrancielleRibeirodosSantos</t>
   </si>
   <si>
     <t>FRANCIELLE.SANTOS@TRAYCORP.COM.BR</t>
@@ -231,7 +233,7 @@
     <t>GABRIELE RAQUEL BIZZON</t>
   </si>
   <si>
-    <t>locawebcommerce-22</t>
+    <t>GabrieleRaquelBizzon</t>
   </si>
   <si>
     <t>GABRIELE.BIZZON@TRAYCORP.COM.BR</t>
@@ -240,7 +242,7 @@
     <t>GUILHERME LEONHARDT SANTA MARIA</t>
   </si>
   <si>
-    <t>locawebcommerce-23</t>
+    <t>GuilhermeLeonhardtSantaMaria</t>
   </si>
   <si>
     <t>GUILHERME.LEONHARDT@TRAYCORP.COM.BR</t>
@@ -249,7 +251,7 @@
     <t>GUSTAVO HENRIQUE DE SOUZA</t>
   </si>
   <si>
-    <t>locawebcommerce-24</t>
+    <t>GustavoSouza</t>
   </si>
   <si>
     <t>GUSTAVO.SOUZA@TRAYCORP.COM.BR</t>
@@ -258,7 +260,7 @@
     <t>GUSTAVO HENRIQUE SOARES FARIA</t>
   </si>
   <si>
-    <t>locawebcommerce-25</t>
+    <t>GustavoFaria</t>
   </si>
   <si>
     <t>GUSTAVO.FARIA@TRAYCORP.COM.BR</t>
@@ -267,7 +269,7 @@
     <t>HENRIQUE HOLTZ</t>
   </si>
   <si>
-    <t>locawebcommerce-26</t>
+    <t>HenriqueHoltz</t>
   </si>
   <si>
     <t>HENRIQUE.HOLTZ@TRAYCORP.COM.BR</t>
@@ -276,7 +278,7 @@
     <t>ISAQUE GOMES DE OLIVEIRA</t>
   </si>
   <si>
-    <t>locawebcommerce-27</t>
+    <t>IsaqueGomesdeOliveira</t>
   </si>
   <si>
     <t>ISAQUE.OLIVEIRA@TRAYCORP.COM.BR</t>
@@ -285,7 +287,7 @@
     <t>JIMMY YUJI TANAMATI SOARES</t>
   </si>
   <si>
-    <t>locawebcommerce-28</t>
+    <t>JimmyYujiTanamatiSoares</t>
   </si>
   <si>
     <t>JIMMY.SOARES@TRAYCORP.COM.BR</t>
@@ -294,7 +296,7 @@
     <t>JOAO PAULO FERREIRA DE OLIVEIRA</t>
   </si>
   <si>
-    <t>locawebcommerce-29</t>
+    <t>JoãoPauloFerreiradeOliveira</t>
   </si>
   <si>
     <t>JOAO.OLIVEIRA@TRAYCORP.COM.BR</t>
@@ -303,7 +305,7 @@
     <t>JOAO RAFAEL RIBEIRO</t>
   </si>
   <si>
-    <t>locawebcommerce-30</t>
+    <t>JoãoLara</t>
   </si>
   <si>
     <t>JOAO.LARA@TRAYCORP.COM.BR</t>
@@ -312,7 +314,7 @@
     <t>LAIS GABRIELE BRANCALHÃO DE SOUZA</t>
   </si>
   <si>
-    <t>locawebcommerce-31</t>
+    <t>LaisBrancalhão</t>
   </si>
   <si>
     <t>LAIS.SOUZA@TRAYCORP.COM.BR</t>
@@ -321,7 +323,7 @@
     <t>LARISSA AZEVEDO DE OLIVEIRA</t>
   </si>
   <si>
-    <t>locawebcommerce-32</t>
+    <t>LarissaAzevedodeOliveira</t>
   </si>
   <si>
     <t>LARISSA.OLIVEIRA@TRAYCORP.COM.BR</t>
@@ -330,7 +332,7 @@
     <t>LEONARDO DE CASTILHOS WERNER</t>
   </si>
   <si>
-    <t>locawebcommerce-33</t>
+    <t>LeonardodeCastilhosWerner</t>
   </si>
   <si>
     <t>LEONARDO.WERNER@TRAYCORP.COM.BR</t>
@@ -339,7 +341,7 @@
     <t>LUANA ARIELE SAVA</t>
   </si>
   <si>
-    <t>locawebcommerce-34</t>
+    <t>LuanaArieleSava</t>
   </si>
   <si>
     <t>LUANA.SAVA@TRAYCORP.COM.BR</t>
@@ -348,7 +350,7 @@
     <t>LUANA DE FRANCA LEVENHAGEN SERABION</t>
   </si>
   <si>
-    <t>locawebcommerce-35</t>
+    <t>locaweb-1</t>
   </si>
   <si>
     <t>LUANA.SERABION@TRAYCORP.COM.BR</t>
@@ -357,7 +359,7 @@
     <t>LUCAS JOAO DIAS KANIAK</t>
   </si>
   <si>
-    <t>locawebcommerce-36</t>
+    <t>LucasJoãoDiasKaniak</t>
   </si>
   <si>
     <t>LUCAS.KANIAK@TRAYCORP.COM.BR</t>
@@ -366,7 +368,7 @@
     <t>LUCAS PEREIRA BARBOSA</t>
   </si>
   <si>
-    <t>locawebcommerce-37</t>
+    <t>LucasPereiraBarbosa</t>
   </si>
   <si>
     <t>LUCAS.BARBOSA@TRAYCORP.COM.BR</t>
@@ -375,7 +377,7 @@
     <t>LUCÉLIA MONTEIRO DE CARVALHO</t>
   </si>
   <si>
-    <t>locawebcommerce-38</t>
+    <t>LucéliaMonteirodeCarvalho</t>
   </si>
   <si>
     <t>LUCELIA.CARVALHO@TRAYCORP.COM.BR</t>
@@ -384,7 +386,7 @@
     <t>MARCIA SOLIGO</t>
   </si>
   <si>
-    <t>locawebcommerce-39</t>
+    <t>MárciaSoligo</t>
   </si>
   <si>
     <t>MARCIA.SOLIGO@TRAYCORP.COM.BR</t>
@@ -393,7 +395,7 @@
     <t>MARCOS LEANDRO RIBEIRO MARINS</t>
   </si>
   <si>
-    <t>locawebcommerce-40</t>
+    <t>MarcosMarins</t>
   </si>
   <si>
     <t>MARCOS.MARINS@TRAYCORP.COM.BR</t>
@@ -402,7 +404,7 @@
     <t>MATEUS WOSNIAKI</t>
   </si>
   <si>
-    <t>locawebcommerce-41</t>
+    <t>MateusWosniaki</t>
   </si>
   <si>
     <t>MATEUS.WOSNIAKI@TRAYCORP.COM.BR</t>
@@ -411,7 +413,7 @@
     <t>MAURO IKEDA VIALICH</t>
   </si>
   <si>
-    <t>locawebcommerce-42</t>
+    <t>MauroIkedaVialich</t>
   </si>
   <si>
     <t>MAURO.VIALICH@TRAYCORP.COM.BR</t>
@@ -420,7 +422,7 @@
     <t>MAYARA CRISTINA APARECIDA ALMEIDA ROBERTO</t>
   </si>
   <si>
-    <t>locawebcommerce-43</t>
+    <t>MayaraRoberto</t>
   </si>
   <si>
     <t>MAYARA.ROBERTO@TRAYCORP.COM.BR</t>
@@ -429,7 +431,7 @@
     <t>NATÁLIA FERNANDES DE MAGALHÃES</t>
   </si>
   <si>
-    <t>locawebcommerce-44</t>
+    <t>NataliaFernandesdeMagalhães</t>
   </si>
   <si>
     <t>NATALIA.MAGALHAES@TRAYCORP.COM.BR</t>
@@ -438,7 +440,7 @@
     <t>NICOLAS DOS SANTOS SILVA</t>
   </si>
   <si>
-    <t>locawebcommerce-45</t>
+    <t>NicolasdosSantosSilva</t>
   </si>
   <si>
     <t>NICOLAS.SILVA@TRAYCORP.COM.BR</t>
@@ -447,7 +449,7 @@
     <t>NILSO DA CONCEICAO JUNIOR</t>
   </si>
   <si>
-    <t>locawebcommerce-46</t>
+    <t>NilsoJunior</t>
   </si>
   <si>
     <t>NILSO.JUNIOR@TRAYCORP.COM.BR</t>
@@ -456,7 +458,7 @@
     <t>PRISCILA INNOCENCIO DA SILVA</t>
   </si>
   <si>
-    <t>locawebcommerce-47</t>
+    <t>PriscilaSilva</t>
   </si>
   <si>
     <t>PRISCILA.SILVA@TRAYCORP.COM.BR</t>
@@ -465,7 +467,7 @@
     <t>RAFAEL AUGUSTO CARLOS</t>
   </si>
   <si>
-    <t>locawebcommerce-48</t>
+    <t>RafaelCarlos</t>
   </si>
   <si>
     <t>RAFAEL.CARLOS@TRAYCORP.COM.BR</t>
@@ -474,7 +476,7 @@
     <t>RAFAEL FONSECA OLIVEIRA</t>
   </si>
   <si>
-    <t>locawebcommerce-49</t>
+    <t>RafaelFonsecaOliveira</t>
   </si>
   <si>
     <t>RAFAEL.OLIVEIRA@TRAYCORP.COM.BR</t>
@@ -483,7 +485,7 @@
     <t>RAFAELA TEIXEIRA</t>
   </si>
   <si>
-    <t>locawebcommerce-50</t>
+    <t>RafaelaTeixeira</t>
   </si>
   <si>
     <t>RAFAELA.TEIXEIRA@TRAYCORP.COM.BR</t>
@@ -492,7 +494,7 @@
     <t>RAPHAEL LAMOUR DIAS PINHEIRO</t>
   </si>
   <si>
-    <t>locawebcommerce-51</t>
+    <t>RaphaelLamourDiasPinheiro</t>
   </si>
   <si>
     <t>RAPHAEL.PINHEIRO@TRAYCORP.COM.BR</t>
@@ -501,7 +503,7 @@
     <t>SILMARI VAZANI CHAVES</t>
   </si>
   <si>
-    <t>locawebcommerce-52</t>
+    <t>SilmariVazaniChaves</t>
   </si>
   <si>
     <t>SILMARI.CHAVES@TRAYCORP.COM.BR</t>
@@ -510,7 +512,7 @@
     <t>SUELEN PEREIRA</t>
   </si>
   <si>
-    <t>locawebcommerce-53</t>
+    <t>SuelenPereira</t>
   </si>
   <si>
     <t>SUELEN.PEREIRA@TRAYCORP.COM.BR</t>
@@ -519,7 +521,7 @@
     <t>TIAGO ZANA GIRELLI</t>
   </si>
   <si>
-    <t>locawebcommerce-54</t>
+    <t>TiagoZanaGirelli</t>
   </si>
   <si>
     <t>TIAGO.GIRELLI@TRAYCORP.COM.BR</t>
@@ -528,7 +530,7 @@
     <t>VINICIUS MILEK GUEDES BEZERRA</t>
   </si>
   <si>
-    <t>locawebcommerce-55</t>
+    <t>ViniciusMilekGuedesBezerra</t>
   </si>
   <si>
     <t>VINICIUS.BEZERRA@TRAYCORP.COM.BR</t>
@@ -537,7 +539,7 @@
     <t>VÍTOR HIROAKI YOSHIOKA</t>
   </si>
   <si>
-    <t>locawebcommerce-56</t>
+    <t>VítorHiroakiYoshioka</t>
   </si>
   <si>
     <t>VITOR.YOSHIOKA@TRAYCORP.COM.BR</t>
@@ -549,7 +551,7 @@
     <t>ACENDINO DUTRA DE OLIVEIRA JUNIOR</t>
   </si>
   <si>
-    <t>locawebcommerce-57</t>
+    <t>AcendinoDutradeOliveiraJunior</t>
   </si>
   <si>
     <t>AJUNIOR@TRAY.NET.BR</t>
@@ -558,7 +560,7 @@
     <t>ADAUTO JUNIOR CAETANO</t>
   </si>
   <si>
-    <t>locawebcommerce-58</t>
+    <t>Adauto</t>
   </si>
   <si>
     <t>ADAUTO.CAETANO@TRAY.NET.BR</t>
@@ -567,7 +569,7 @@
     <t>ADRIANA TONHON VIANA VOGEL</t>
   </si>
   <si>
-    <t>locawebcommerce-59</t>
+    <t>AdrianaTonhonVianaVogel</t>
   </si>
   <si>
     <t>AVOGEL@TRAY.NET.BR</t>
@@ -576,7 +578,7 @@
     <t>ADRIANO DE SOUZA MAY</t>
   </si>
   <si>
-    <t>locawebcommerce-60</t>
+    <t>AdrianodeSouzaMay</t>
   </si>
   <si>
     <t>ADRIANO.MAY@TRAY.NET.BR</t>
@@ -585,7 +587,7 @@
     <t>ALAN APARECIDO ROCHA</t>
   </si>
   <si>
-    <t>locawebcommerce-61</t>
+    <t>AlanAparecidoRocha</t>
   </si>
   <si>
     <t>AROCHA@TRAY.NET.BR</t>
@@ -594,7 +596,7 @@
     <t>ALAN FELIX DA SILVA</t>
   </si>
   <si>
-    <t>locawebcommerce-62</t>
+    <t>AlanFelixdaSilva</t>
   </si>
   <si>
     <t>AFELIX@TRAY.NET.BR</t>
@@ -603,7 +605,7 @@
     <t>ALAN GOMES DOS SANTOS BULGARELLI</t>
   </si>
   <si>
-    <t>locawebcommerce-63</t>
+    <t>AlanGomesdosSantosBulgarelli</t>
   </si>
   <si>
     <t>ALAN.BULGARELLI@TRAY.NET.BR</t>
@@ -612,7 +614,7 @@
     <t>ALANA VIANA DE SOUSA</t>
   </si>
   <si>
-    <t>locawebcommerce-64</t>
+    <t>AlanavianadeSousa</t>
   </si>
   <si>
     <t>ALANA.SOUSA@TRAY.NET.BR</t>
@@ -621,7 +623,7 @@
     <t>ALESSANDRA ANCHIETA PEREIRA</t>
   </si>
   <si>
-    <t>locawebcommerce-65</t>
+    <t>AlessandraAnchieta</t>
   </si>
   <si>
     <t>ALESSANDRA.PEREIRA@TRAY.NET.BR</t>
@@ -630,7 +632,7 @@
     <t>ALEXANDRE AUGUSTO DE ALMEIDA</t>
   </si>
   <si>
-    <t>locawebcommerce-66</t>
+    <t>AlexandreAugustodeAlmeida</t>
   </si>
   <si>
     <t>AALMEIDA@TRAY.NET.BR</t>
@@ -639,7 +641,7 @@
     <t>ALEXANDRE MARTINS DAVOLI</t>
   </si>
   <si>
-    <t>locawebcommerce-67</t>
+    <t>AlexandreMartinsDavoli</t>
   </si>
   <si>
     <t>ADAVOLI@TRAY.NET.BR</t>
@@ -648,7 +650,7 @@
     <t>ALEXANDRE MOREIRA DA ENCARNACAO</t>
   </si>
   <si>
-    <t>locawebcommerce-68</t>
+    <t>AlexandreMoreiradaEncarnação</t>
   </si>
   <si>
     <t>AMOREIRA@TRAY.NET.BR</t>
@@ -657,7 +659,7 @@
     <t>ALLAN HONORATO DA SILVA</t>
   </si>
   <si>
-    <t>locawebcommerce-69</t>
+    <t>AllanHonoratodaSilva</t>
   </si>
   <si>
     <t>ASILVA@TRAY.NET.BR</t>
@@ -666,7 +668,7 @@
     <t>ALLEX DE OLIVEIRA PEREIRA DA SILVA</t>
   </si>
   <si>
-    <t>locawebcommerce-70</t>
+    <t>AllexdeOliveiraPereiradaSilva</t>
   </si>
   <si>
     <t>APEREIRA@TRAY.NET.BR</t>
@@ -675,7 +677,7 @@
     <t>ALVINO AMARO DA SILVA</t>
   </si>
   <si>
-    <t>locawebcommerce-71</t>
+    <t>AlvinoAmarodaSilva</t>
   </si>
   <si>
     <t>ALVINO.AMARO@TRAYCORP.COM.BR</t>
@@ -684,7 +686,7 @@
     <t>AMANDA CAROLINE DA SILVA PERFEITO</t>
   </si>
   <si>
-    <t>locawebcommerce-72</t>
+    <t>AmandaCarolinedaSilvaPerfeito</t>
   </si>
   <si>
     <t>AMANDA.PERFEITO@TRAY.NET.BR</t>
@@ -693,7 +695,7 @@
     <t>AMANDA FERREIRA MACHADO CORREA</t>
   </si>
   <si>
-    <t>locawebcommerce-73</t>
+    <t>AmandaMachado</t>
   </si>
   <si>
     <t>AMANDA.MACHADO@TRAY.NET.BR</t>
@@ -702,7 +704,7 @@
     <t>ANA BEATRIZ FIGUEREDO VICENTE</t>
   </si>
   <si>
-    <t>locawebcommerce-74</t>
+    <t>AnaBeatrizFigueredoVicente</t>
   </si>
   <si>
     <t>ANA.VICENTE@TRAY.NET.BR</t>
@@ -711,7 +713,7 @@
     <t>ANA CAROLINA NEUBERN BATISTA DOS REIS</t>
   </si>
   <si>
-    <t>locawebcommerce-75</t>
+    <t>AnaCarolinaNeubernBatistadosReis</t>
   </si>
   <si>
     <t>ANA.REIS@TRAY.NET.BR</t>
@@ -720,7 +722,7 @@
     <t>ANA CAROLINE FAUSTINA FERREIRA</t>
   </si>
   <si>
-    <t>locawebcommerce-76</t>
+    <t>CarolineFaustinaFerreira</t>
   </si>
   <si>
     <t>ANA.FERREIRA@TRAY.NET.BR</t>
@@ -729,7 +731,7 @@
     <t>ANA CAROLINE MORATA BOAVENTURA</t>
   </si>
   <si>
-    <t>locawebcommerce-77</t>
+    <t>AnaCarolineMorataBoaventura</t>
   </si>
   <si>
     <t>ANA.BOAVENTURA@TRAY.NET.BR</t>
@@ -738,7 +740,7 @@
     <t>ANA PAULA ALVES TEIXEIRA</t>
   </si>
   <si>
-    <t>locawebcommerce-78</t>
+    <t>AnaPaulaAlvesTeixeira</t>
   </si>
   <si>
     <t>ANA.TEIXEIRA@TRAY.NET.BR</t>
@@ -747,7 +749,7 @@
     <t>ANA THAIS DA SILVA PAULA</t>
   </si>
   <si>
-    <t>locawebcommerce-79</t>
+    <t>AnaThaisdaSilvaPaula</t>
   </si>
   <si>
     <t>ANA.PAULA@TRAY.NET.BR</t>
@@ -756,7 +758,7 @@
     <t>ANDERSON HONORATO DA SILVA</t>
   </si>
   <si>
-    <t>locawebcommerce-80</t>
+    <t>AndersonHonorato</t>
   </si>
   <si>
     <t>AHONORATO@TRAY.NET.BR</t>
@@ -765,7 +767,7 @@
     <t>ANDERSON LUCAS SILVA DE OLIVEIRA</t>
   </si>
   <si>
-    <t>locawebcommerce-81</t>
+    <t>AndersonLucasSilvadeOliveira</t>
   </si>
   <si>
     <t>ANDERSON.OLIVEIRA@TRAY.NET.BR</t>
@@ -774,7 +776,7 @@
     <t>ANDERSON VEIGA RODRIGUES</t>
   </si>
   <si>
-    <t>locawebcommerce-82</t>
+    <t>AndersonVeiga</t>
   </si>
   <si>
     <t>ANDERSON.VEIGA@TRAYCORP.COM.BR</t>
@@ -783,7 +785,7 @@
     <t>ANDRE ALEX DIAS DA SILVA</t>
   </si>
   <si>
-    <t>locawebcommerce-83</t>
+    <t>AndréAlexDiasdaSilva</t>
   </si>
   <si>
     <t>ANDRE.DIAS@TRAY.NET.BR</t>
@@ -792,7 +794,7 @@
     <t>ANDRE LUIS DA SILVA DUTRA</t>
   </si>
   <si>
-    <t>locawebcommerce-84</t>
+    <t>AndréLuisdaSilvaDutra</t>
   </si>
   <si>
     <t>ANDRE.DUTRA@TRAY.NET.BR</t>
@@ -801,7 +803,7 @@
     <t>ANDRE LUIS MARTINS BANDEIRA</t>
   </si>
   <si>
-    <t>locawebcommerce-85</t>
+    <t>AndreBandeira</t>
   </si>
   <si>
     <t>ANDRE.BANDEIRA@TRAY.NET.BR</t>
@@ -810,7 +812,7 @@
     <t>ANDRE LUIZ FERNANDES DOS SANTOS</t>
   </si>
   <si>
-    <t>locawebcommerce-86</t>
+    <t>AndréLuizFernandesdosSantos</t>
   </si>
   <si>
     <t>ANDRE.SANTOS@TRAY.NET.BR</t>
@@ -819,7 +821,7 @@
     <t>ANTENOR DE ABREU NETO</t>
   </si>
   <si>
-    <t>locawebcommerce-87</t>
+    <t>AntenordeAbreuNeto</t>
   </si>
   <si>
     <t>antenor.neto@traycorp.com.br</t>
@@ -828,7 +830,7 @@
     <t>ANTONY THIAGO FERRAZ DAS CHAGAS</t>
   </si>
   <si>
-    <t>locawebcommerce-88</t>
+    <t>AntonyThiagoFerrazDasChagas</t>
   </si>
   <si>
     <t>ANTONY.CHAGAS@TRAY.NET.BR</t>
@@ -837,7 +839,7 @@
     <t>BRUNA LAURINDA CALLEJON</t>
   </si>
   <si>
-    <t>locawebcommerce-89</t>
+    <t>BrunaCallejon</t>
   </si>
   <si>
     <t>BRUNA.LAURINDA@TRAY.NET.BR</t>
@@ -846,7 +848,7 @@
     <t>BRUNO DA SILVA FERREIRA</t>
   </si>
   <si>
-    <t>locawebcommerce-90</t>
+    <t>BrunoFerreira</t>
   </si>
   <si>
     <t>BFERREIRA@TRAY.NET.BR</t>
@@ -855,7 +857,7 @@
     <t>BRUNO DE SOUZA PRADO</t>
   </si>
   <si>
-    <t>locawebcommerce-91</t>
+    <t>BrunodeSouzaPrado</t>
   </si>
   <si>
     <t>BPRADO@TRAY.NET.BR</t>
@@ -864,7 +866,7 @@
     <t>BRUNO GARCIA RIZZO SAMPAIO</t>
   </si>
   <si>
-    <t>locawebcommerce-92</t>
+    <t>BrunoSampaio</t>
   </si>
   <si>
     <t>BRUNO.GARCIA@TRAY.NET.BR</t>
@@ -873,7 +875,7 @@
     <t>BRUNO GOMES DE PAULA</t>
   </si>
   <si>
-    <t>locawebcommerce-93</t>
+    <t>BrunoGomes</t>
   </si>
   <si>
     <t>BRUNO.GOMES@TRAYCORP.COM.BR</t>
@@ -882,7 +884,7 @@
     <t>BRUNO LEONARDO BISPO DOS SANTOS</t>
   </si>
   <si>
-    <t>locawebcommerce-94</t>
+    <t>BrunoLeonardoBispodosSantos</t>
   </si>
   <si>
     <t>BRUNO.SANTOS@TRAY.NET.BR</t>
@@ -891,7 +893,7 @@
     <t>BRUNO MORGADO DA CRUZ</t>
   </si>
   <si>
-    <t>locawebcommerce-95</t>
+    <t>BrunoMorgadoCruz</t>
   </si>
   <si>
     <t>BMORGADO@TRAY.NET.BR</t>
@@ -900,7 +902,7 @@
     <t>CAIO CESAR TAGLIOLATTO</t>
   </si>
   <si>
-    <t>locawebcommerce-96</t>
+    <t>CaioTagliolatto</t>
   </si>
   <si>
     <t>CAIO.TAGLIOLATTO@TRAY.NET.BR</t>
@@ -909,7 +911,7 @@
     <t>CAIO HENRIQUE RIBEIRO REIS</t>
   </si>
   <si>
-    <t>locawebcommerce-97</t>
+    <t>CaioHenriqueRibeiroReis</t>
   </si>
   <si>
     <t>CAIO.REIS@TRAY.NET.BR</t>
@@ -918,7 +920,7 @@
     <t>CAMILLE CRISTTINNE MACEDO VACILOTO</t>
   </si>
   <si>
-    <t>locawebcommerce-98</t>
+    <t>CamilleCristtinneVaciloto</t>
   </si>
   <si>
     <t>CAMILLE.VACILOTO@TRAY.NET.BR</t>
@@ -927,7 +929,7 @@
     <t>CARLA CAROLINA DOS SANTOS AGUIAR</t>
   </si>
   <si>
-    <t>locawebcommerce-99</t>
+    <t>CarlaAguiar</t>
   </si>
   <si>
     <t>CARLA.AGUIAR@TRAY.NET.BR</t>
@@ -936,7 +938,7 @@
     <t>CAROLINA JUNQUEIRA VENTURA DAL MONTE</t>
   </si>
   <si>
-    <t>locawebcommerce-100</t>
+    <t>CarolinaJunqueiraVentura</t>
   </si>
   <si>
     <t>CJUNQUEIRA@TRAY.NET.BR</t>
@@ -945,7 +947,7 @@
     <t>CAROLINA RIBEIRO LIVOLIS</t>
   </si>
   <si>
-    <t>locawebcommerce-101</t>
+    <t>CarolinaRibeiroLivolis</t>
   </si>
   <si>
     <t>CLIVOLIS@TRAY.NET.BR</t>
@@ -954,7 +956,7 @@
     <t>CAROLINE SCHIEVENIN SPERANDIO SAUSANAVICIUS</t>
   </si>
   <si>
-    <t>locawebcommerce-102</t>
+    <t>CarolineSchieveninSperandioSausanavicius</t>
   </si>
   <si>
     <t>CAROLINE.SAUSANAVICIUS@TRAY.NET.BR</t>
@@ -963,7 +965,7 @@
     <t>CASSIO FELIPE PEREIRA COLOMBO</t>
   </si>
   <si>
-    <t>locawebcommerce-103</t>
+    <t>CássioFelipePereiraColombo</t>
   </si>
   <si>
     <t>CASSIO.COLOMBO@TRAYCORP.COM.BR</t>
@@ -972,7 +974,7 @@
     <t>CAUAN OLLER LOPES DE SOUSA</t>
   </si>
   <si>
-    <t>locawebcommerce-104</t>
+    <t>CauanOllerLopesDeSousa</t>
   </si>
   <si>
     <t>CAUAN.SOUSA@TRAY.NET.BR</t>
@@ -981,7 +983,7 @@
     <t>CINTHIA SILMAN</t>
   </si>
   <si>
-    <t>locawebcommerce-105</t>
+    <t>CinthiaSilman</t>
   </si>
   <si>
     <t>CSILMAN@TRAY.NET.BR</t>
@@ -990,7 +992,7 @@
     <t>CLAUDIO ROSSE PANDOLFI</t>
   </si>
   <si>
-    <t>locawebcommerce-106</t>
+    <t>ClaudioRossePandolfi</t>
   </si>
   <si>
     <t>CPANDOLFI@TRAY.NET.BR</t>
@@ -999,7 +1001,7 @@
     <t>DANIEL POLICARPO BIUDES DOS SANTOS</t>
   </si>
   <si>
-    <t>locawebcommerce-107</t>
+    <t>locaweb-2</t>
   </si>
   <si>
     <t>DPOLICARPO@TRAY.NET.BR</t>
@@ -1008,7 +1010,7 @@
     <t>DANIELA MONTEIRO DA SILVA ZACCHINI</t>
   </si>
   <si>
-    <t>locawebcommerce-108</t>
+    <t>DanielaMonteirodaSilvaZacchini</t>
   </si>
   <si>
     <t>DANIELA.ZACCHINI@TRAY.NET.BR</t>
@@ -1017,7 +1019,7 @@
     <t>DANIELE DOS SANTOS TRIBUTINO</t>
   </si>
   <si>
-    <t>locawebcommerce-109</t>
+    <t>DanieledosSantosTributino</t>
   </si>
   <si>
     <t>DANIELE.TRIBUTINO@TRAY.NET.BR</t>
@@ -1026,7 +1028,7 @@
     <t>DANIELE PEREIRA SACOMAN</t>
   </si>
   <si>
-    <t>locawebcommerce-110</t>
+    <t>DanielePereiraSacoman</t>
   </si>
   <si>
     <t>DPEREIRA@TRAY.NET.BR</t>
@@ -1035,7 +1037,7 @@
     <t>DANIELLA PAULA MARTINS</t>
   </si>
   <si>
-    <t>locawebcommerce-111</t>
+    <t>DaniellaPaulaMartins</t>
   </si>
   <si>
     <t>DANIELLA.MARTINS@TRAY.NET.BR</t>
@@ -1044,7 +1046,7 @@
     <t>DANILO DE SA ALVES KAMADA</t>
   </si>
   <si>
-    <t>locawebcommerce-112</t>
+    <t>DanilodeSáAlvesKamada</t>
   </si>
   <si>
     <t>DANILO.KAMADA@TRAY.NET.BR</t>
@@ -1053,7 +1055,7 @@
     <t>DANILO FRANCISCO REIS BALDUINO</t>
   </si>
   <si>
-    <t>locawebcommerce-113</t>
+    <t>DaniloFranciscoReisBalduino</t>
   </si>
   <si>
     <t>DANILO.BALDUINO@TRAY.NET.BR</t>
@@ -1062,7 +1064,7 @@
     <t>DANILO LIMA DE SOUZA</t>
   </si>
   <si>
-    <t>locawebcommerce-114</t>
+    <t>DaniloLimadeSouza</t>
   </si>
   <si>
     <t>DANILO.SOUZA@TRAY.NET.BR</t>
@@ -1071,7 +1073,7 @@
     <t>DEBORA SANTANA MARTINS</t>
   </si>
   <si>
-    <t>locawebcommerce-115</t>
+    <t>DéboraSantanaMartins</t>
   </si>
   <si>
     <t>DMARTINS@TRAY.NET.BR</t>
@@ -1080,7 +1082,7 @@
     <t>DIEGO DE MATTOS MOCHIATTI</t>
   </si>
   <si>
-    <t>locawebcommerce-116</t>
+    <t>DiegodeMattosMochiatti</t>
   </si>
   <si>
     <t>DMOCHIATTI@TRAY.NET.BR</t>
@@ -1089,7 +1091,7 @@
     <t>DIEGO RAMALHO TORRES</t>
   </si>
   <si>
-    <t>locawebcommerce-117</t>
+    <t>DiegoRamalhoTorres</t>
   </si>
   <si>
     <t>DIEGO.TORRES@TRAY.NET.BR</t>
@@ -1098,7 +1100,7 @@
     <t>DIEGO TADEU PESTANA</t>
   </si>
   <si>
-    <t>locawebcommerce-118</t>
+    <t>DiegoTadeuPestana</t>
   </si>
   <si>
     <t>DIEGO.PESTANA@TRAYCORP.COM.BR</t>
@@ -1107,7 +1109,7 @@
     <t>DIOGO DE OLIVEIRA RODRIGUES</t>
   </si>
   <si>
-    <t>locawebcommerce-119</t>
+    <t>DiogodeOliveiraRodrigues</t>
   </si>
   <si>
     <t>DIOGO.RODRIGUES@TRAY.NET.BR</t>
@@ -1116,7 +1118,7 @@
     <t>DOUGLAS DA CRUZ MARTINS</t>
   </si>
   <si>
-    <t>locawebcommerce-120</t>
+    <t>DouglasdaCruzMartins</t>
   </si>
   <si>
     <t>DOUGLAS.MARTINS@TRAY.NET.BR</t>
@@ -1125,7 +1127,7 @@
     <t>DOUGLAS NEVES DE SOUZA SILVA</t>
   </si>
   <si>
-    <t>locawebcommerce-121</t>
+    <t>DouglasNevesdeSouzaSilva</t>
   </si>
   <si>
     <t>DSOUZA@TRAY.NET.BR</t>
@@ -1134,7 +1136,7 @@
     <t>DURAN LOPES MELLO FERREIRA</t>
   </si>
   <si>
-    <t>locawebcommerce-122</t>
+    <t>DuranFerreira</t>
   </si>
   <si>
     <t>DURAN.FERREIRA@TRAY.NET.BR</t>
@@ -1143,7 +1145,7 @@
     <t>EDER DOS SANTOS CUER</t>
   </si>
   <si>
-    <t>locawebcommerce-123</t>
+    <t>EderdosSantosCuer</t>
   </si>
   <si>
     <t>EDER.CUER@TRAY.NET.BR</t>
@@ -1152,7 +1154,7 @@
     <t>EDSON APARECIDO ANDRADE DO CARMO</t>
   </si>
   <si>
-    <t>locawebcommerce-124</t>
+    <t>EdsonAndradedoCarmo</t>
   </si>
   <si>
     <t>EANDRADE@TRAY.NET.BR</t>
@@ -1161,7 +1163,7 @@
     <t>EDSON BRAGA ZAMPIERI</t>
   </si>
   <si>
-    <t>locawebcommerce-125</t>
+    <t>EdsonZampieri</t>
   </si>
   <si>
     <t>EZAMPIERI@TRAY.NET.BR</t>
@@ -1170,7 +1172,7 @@
     <t>EDSON RICARDO LOURENCO</t>
   </si>
   <si>
-    <t>locawebcommerce-126</t>
+    <t>EdsonRicardoLourenço</t>
   </si>
   <si>
     <t>ELOURENCO@TRAY.NET.BR</t>
@@ -1179,7 +1181,7 @@
     <t>EDUARDO AMARAL DE ARAUJO</t>
   </si>
   <si>
-    <t>locawebcommerce-127</t>
+    <t>EduardoAmaraldeAraújo</t>
   </si>
   <si>
     <t>EDUARDO.ARAUJO@TRAY.NET.BR</t>
@@ -1188,7 +1190,7 @@
     <t>EDUARDO KIYOSHI HIGA</t>
   </si>
   <si>
-    <t>locawebcommerce-128</t>
+    <t>EduardoKiyoshiHiga</t>
   </si>
   <si>
     <t>EKIYOSHI@TRAY.NET.BR</t>
@@ -1197,7 +1199,7 @@
     <t>EDUARDO VINICIUS DOS SANTOS ALCANTARA</t>
   </si>
   <si>
-    <t>locawebcommerce-129</t>
+    <t>locaweb-3</t>
   </si>
   <si>
     <t>EDUARDO.PEREIRA@TRAYCORP.COM.BR</t>
@@ -1206,7 +1208,7 @@
     <t>ERIC HENRIQUE GOMES CARDOSO REZENDE</t>
   </si>
   <si>
-    <t>locawebcommerce-130</t>
+    <t>EricRezende</t>
   </si>
   <si>
     <t>ERIC.REZENDE@TRAY.NET.BR</t>
@@ -1215,7 +1217,7 @@
     <t>ERIC RAIMUNDO KAVINSKI</t>
   </si>
   <si>
-    <t>locawebcommerce-131</t>
+    <t>EricKavinski</t>
   </si>
   <si>
     <t>ERIC.KAVINSKI@TRAYCORP.COM.BR</t>
@@ -1224,7 +1226,7 @@
     <t>ESTEVAO GARRIDO BERTOLINI</t>
   </si>
   <si>
-    <t>locawebcommerce-132</t>
+    <t>EstevãoGarridoBertolini</t>
   </si>
   <si>
     <t>ESTEVAO.BERTOLINI@TRAY.NET.BR</t>
@@ -1233,7 +1235,7 @@
     <t>FABIANO HENRIQUE DE BRITO</t>
   </si>
   <si>
-    <t>locawebcommerce-133</t>
+    <t>FabianoHenriquedeBrito</t>
   </si>
   <si>
     <t>FABIANO.BRITO@TRAY.NET.BR</t>
@@ -1242,7 +1244,7 @@
     <t>FABIO FACCIOLI TORRES DE SOUZA</t>
   </si>
   <si>
-    <t>locawebcommerce-134</t>
+    <t>FábioFaccioliTorresdeSouza</t>
   </si>
   <si>
     <t>FABIO.SOUZA@TRAY.NET.BR</t>
@@ -1251,7 +1253,7 @@
     <t>FABIO HENRIQUE CUNHA DA SILVA</t>
   </si>
   <si>
-    <t>locawebcommerce-135</t>
+    <t>FábioHenriqueCunhadaSilva</t>
   </si>
   <si>
     <t>FABIO.SILVA@TRAY.NET.BR</t>
@@ -1260,7 +1262,7 @@
     <t>FABRICIO DA SILVA BASTOS DO NASCIMENTO</t>
   </si>
   <si>
-    <t>locawebcommerce-136</t>
+    <t>FabrícioBastos</t>
   </si>
   <si>
     <t>FNASCIMENTO@TRAY.NET.BR</t>
@@ -1269,7 +1271,7 @@
     <t>FABRICIO MARTINS RESENDE</t>
   </si>
   <si>
-    <t>locawebcommerce-137</t>
+    <t>FabrícioMartinsResende</t>
   </si>
   <si>
     <t>FABRICIO.RESENDE@TRAY.NET.BR</t>
@@ -1278,7 +1280,7 @@
     <t>FELIPE ALEXANDRE</t>
   </si>
   <si>
-    <t>locawebcommerce-138</t>
+    <t>FelipeAlexandre</t>
   </si>
   <si>
     <t>FELIPE.ALEXANDRE@TRAYCORP.COM.BR</t>
@@ -1287,7 +1289,7 @@
     <t>FELIPE ARTIERI SCORSAFAVA</t>
   </si>
   <si>
-    <t>locawebcommerce-139</t>
+    <t>FelipeArtieriScorsafava</t>
   </si>
   <si>
     <t>FARTIERI@TRAY.NET.BR</t>
@@ -1296,7 +1298,7 @@
     <t>FELIPE DA SILVA PEREIRA</t>
   </si>
   <si>
-    <t>locawebcommerce-140</t>
+    <t>FelipedaSilvaPereira</t>
   </si>
   <si>
     <t>FELIPE.PEREIRA@TRAY.NET.BR</t>
@@ -1305,7 +1307,7 @@
     <t>FERDINANDO CESAR PAES</t>
   </si>
   <si>
-    <t>locawebcommerce-141</t>
+    <t>FerdinandoCesarPaes</t>
   </si>
   <si>
     <t>FERDINANDO.PAES@TRAY.NET.BR</t>
@@ -1314,7 +1316,7 @@
     <t>FERNANDA MAZUQUINI</t>
   </si>
   <si>
-    <t>locawebcommerce-142</t>
+    <t>FernandaMazuquini</t>
   </si>
   <si>
     <t>FMAZUQUINI@TRAY.NET.BR</t>
@@ -1323,7 +1325,7 @@
     <t>FERNANDO DE LIMA</t>
   </si>
   <si>
-    <t>locawebcommerce-143</t>
+    <t>FernandoLima</t>
   </si>
   <si>
     <t>FERNANDO.LIMA@TRAY.NET.BR</t>
@@ -1332,7 +1334,7 @@
     <t>FERNANDO LUIZ SOUZA RAMALHO</t>
   </si>
   <si>
-    <t>locawebcommerce-144</t>
+    <t>FernandoLuizSouzaRamalho</t>
   </si>
   <si>
     <t>FERNANDO.RAMALHO@TRAY.NET.BR</t>
@@ -1341,7 +1343,7 @@
     <t>FERNANDO MIOLA ROBERTI</t>
   </si>
   <si>
-    <t>locawebcommerce-145</t>
+    <t>FernandoMiolaRoberti</t>
   </si>
   <si>
     <t>FERNANDO.ROBERTI@TRAYCORP.COM.BR</t>
@@ -1350,7 +1352,7 @@
     <t>FRANCIELE GIANCURSI VIANA</t>
   </si>
   <si>
-    <t>locawebcommerce-146</t>
+    <t>FrancieleGiancursiViana</t>
   </si>
   <si>
     <t>FVIANA@TRAY.NET.BR</t>
@@ -1359,7 +1361,7 @@
     <t>GABRIEL ARAUJO TINETTI</t>
   </si>
   <si>
-    <t>locawebcommerce-147</t>
+    <t>GabrielAraujoTinetti</t>
   </si>
   <si>
     <t>GABRIEL.TINETTI@TRAY.NET.BR</t>
@@ -1368,7 +1370,7 @@
     <t>GABRIEL FELIPE DA SILVA</t>
   </si>
   <si>
-    <t>locawebcommerce-148</t>
+    <t>GabrielFelipedaSilva</t>
   </si>
   <si>
     <t>GABRIEL.SILVA@TRAY.NET.BR</t>
@@ -1377,7 +1379,7 @@
     <t>GABRIEL FORNASIER MARTINS</t>
   </si>
   <si>
-    <t>locawebcommerce-149</t>
+    <t>GabrielFornasierMartins</t>
   </si>
   <si>
     <t>GABRIEL.MARTINS@TRAY.NET.BR</t>
@@ -1386,7 +1388,7 @@
     <t>GABRIEL SILVA PEREZ</t>
   </si>
   <si>
-    <t>locawebcommerce-150</t>
+    <t>GabrielPerez</t>
   </si>
   <si>
     <t>GABRIEL.PEREZ@TRAY.NET.BR</t>
@@ -1395,7 +1397,7 @@
     <t>GABRIEL TORIBIO COIMBRA</t>
   </si>
   <si>
-    <t>locawebcommerce-151</t>
+    <t>GABRIELTORIBIOCOIMBRA</t>
   </si>
   <si>
     <t>GCOIMBRA@TRAY.NET.BR</t>
@@ -1404,7 +1406,7 @@
     <t>GABRIELA CALAZANS RIBAS ANTONELLI</t>
   </si>
   <si>
-    <t>locawebcommerce-152</t>
+    <t>GabrielaCalazansRibasAntonelli</t>
   </si>
   <si>
     <t>GABRIELA.ANTONELLI@TRAY.NET.BR</t>
@@ -1413,7 +1415,7 @@
     <t>GAMALIEL HELENO DOS SANTOS</t>
   </si>
   <si>
-    <t>locawebcommerce-153</t>
+    <t>GamalielHelenodosSantos</t>
   </si>
   <si>
     <t>GAMALIEL.SANTOS@TRAY.NET.BR</t>
@@ -1422,7 +1424,7 @@
     <t>GERALDO ANDRADE CARNEIRO</t>
   </si>
   <si>
-    <t>locawebcommerce-154</t>
+    <t>locaweb-4</t>
   </si>
   <si>
     <t>GANDRADE@TRAY.NET.BR</t>
@@ -1431,7 +1433,7 @@
     <t>GIANCARLO MIELO</t>
   </si>
   <si>
-    <t>locawebcommerce-155</t>
+    <t>GiancarloMielo</t>
   </si>
   <si>
     <t>GIANCARLO.MILEO@TRAY.NET.BR</t>
@@ -1440,7 +1442,7 @@
     <t>GUILHERME MOREIRA MELO</t>
   </si>
   <si>
-    <t>locawebcommerce-156</t>
+    <t>GuilhermeMoreiraMelo</t>
   </si>
   <si>
     <t>GMOREIRA@TRAY.NET.BR</t>
@@ -1449,7 +1451,7 @@
     <t>GUILHERME SFERRA DA SILVA</t>
   </si>
   <si>
-    <t>locawebcommerce-157</t>
+    <t>GuilhermeSferradaSilva</t>
   </si>
   <si>
     <t>GSILVA@TRAY.NET.BR</t>
@@ -1458,7 +1460,7 @@
     <t>GUSTAVO HENRIQUE LOPES RONCA</t>
   </si>
   <si>
-    <t>locawebcommerce-158</t>
+    <t>GustavoHenriqueLopesRonca</t>
   </si>
   <si>
     <t>GUSTAVO.HENRIQUE@TRAY.NET.BR</t>
@@ -1467,7 +1469,7 @@
     <t>GUSTAVO LEITE GALEGO</t>
   </si>
   <si>
-    <t>locawebcommerce-159</t>
+    <t>GustavoGalego</t>
   </si>
   <si>
     <t>GGALEGO@TRAY.NET.BR</t>
@@ -1476,7 +1478,7 @@
     <t>GUSTAVO RODRIGO BARBOSA</t>
   </si>
   <si>
-    <t>locawebcommerce-160</t>
+    <t>locaweb-5</t>
   </si>
   <si>
     <t>GUSTAVO.BARBOSA@TRAY.NET.BR</t>
@@ -1485,7 +1487,7 @@
     <t>GUSTAVO SENA DE ALMEIDA INACIO</t>
   </si>
   <si>
-    <t>locawebcommerce-161</t>
+    <t>GustavoSenadeAlmeidaInácio</t>
   </si>
   <si>
     <t>GUSTAVO.INACIO@TRAY.NET.BR</t>
@@ -1494,7 +1496,7 @@
     <t>GUTEMBERG JUNIOR JORDAO</t>
   </si>
   <si>
-    <t>locawebcommerce-162</t>
+    <t>GutembergJuniorJordão</t>
   </si>
   <si>
     <t>GUTEMBERG.JORDAO@TRAY.NET.BR</t>
@@ -1503,7 +1505,7 @@
     <t>HENRIQUE SANCHES ANDRADE</t>
   </si>
   <si>
-    <t>locawebcommerce-163</t>
+    <t>HenriqueSanchesAndrade</t>
   </si>
   <si>
     <t>HENRIQUE.ANDRADE@TRAY.NET.BR</t>
@@ -1512,7 +1514,7 @@
     <t>IGOR CICOTOSTE FREDI</t>
   </si>
   <si>
-    <t>locawebcommerce-164</t>
+    <t>IgorCicotosteFredi</t>
   </si>
   <si>
     <t>IFREDI@TRAY.NET.BR</t>
@@ -1521,7 +1523,7 @@
     <t>IGOR CORREIA FREITAS</t>
   </si>
   <si>
-    <t>locawebcommerce-165</t>
+    <t>IgorCorreiaFreitas</t>
   </si>
   <si>
     <t>IGOR.FREITAS@TRAY.NET.BR</t>
@@ -1530,7 +1532,7 @@
     <t>IRIS DA SILVEIRA RAINERI MACHADO</t>
   </si>
   <si>
-    <t>locawebcommerce-166</t>
+    <t>IrisdaSilveiraRaineriMachado</t>
   </si>
   <si>
     <t>IRIS.MACHADO@TRAY.NET.BR</t>
@@ -1539,7 +1541,7 @@
     <t>ISABELA LAUENE DOS SANTOS</t>
   </si>
   <si>
-    <t>locawebcommerce-167</t>
+    <t>IsabelaLauenedosSantos</t>
   </si>
   <si>
     <t>ISABELA.SANTOS@TRAY.NET.BR</t>
@@ -1548,7 +1550,7 @@
     <t>ISABELA SPADOTTO PINEDA</t>
   </si>
   <si>
-    <t>locawebcommerce-168</t>
+    <t>IsabelaSpadottoPineda</t>
   </si>
   <si>
     <t>ISABELA.PINEDA@TRAY.NET.BR</t>
@@ -1557,7 +1559,7 @@
     <t>ISABELLA YAMASHITA DE MORAES</t>
   </si>
   <si>
-    <t>locawebcommerce-169</t>
+    <t>IsabellaYamashitadeMoraes</t>
   </si>
   <si>
     <t>ISABELLA.MORAES@TRAY.NET.BR</t>
@@ -1566,7 +1568,7 @@
     <t>ISIS FERNANDA DE OLIVEIRA MARQUES</t>
   </si>
   <si>
-    <t>locawebcommerce-170</t>
+    <t>IsisFernandadeOliveiraMarques</t>
   </si>
   <si>
     <t>ISIS.MARQUES@TRAY.NET.BR</t>
@@ -1575,7 +1577,7 @@
     <t>ISMAYK DOS SANTOS MARQUES</t>
   </si>
   <si>
-    <t>locawebcommerce-171</t>
+    <t>IsmaykdosSantosMarques</t>
   </si>
   <si>
     <t>ISMAYK.MARQUES@TRAY.NET.BR</t>
@@ -1584,7 +1586,7 @@
     <t>JANAINA LUZIA DA SILVA</t>
   </si>
   <si>
-    <t>locawebcommerce-172</t>
+    <t>JanainaLuziadaSilva</t>
   </si>
   <si>
     <t>JLUZIA@TRAY.NET.BR</t>
@@ -1593,7 +1595,7 @@
     <t>JAQUELINE DE SOUZA GOMES</t>
   </si>
   <si>
-    <t>locawebcommerce-173</t>
+    <t>JaquelinedeSouzaGomes</t>
   </si>
   <si>
     <t>JAQUELINE.GOMES@TRAY.NET.BR</t>
@@ -1602,7 +1604,7 @@
     <t>JESSICA ANDRESSA UZAI</t>
   </si>
   <si>
-    <t>locawebcommerce-174</t>
+    <t>JéssicaAndressaUzai</t>
   </si>
   <si>
     <t>JUZAI@TRAY.NET.BR</t>
@@ -1611,7 +1613,7 @@
     <t>JESSICA BUJARY MAZO ALMEIDA</t>
   </si>
   <si>
-    <t>locawebcommerce-175</t>
+    <t>JéssicaBujaryMazoAlmeida</t>
   </si>
   <si>
     <t>JESSICA.ALMEIDA@TRAY.NET.BR</t>
@@ -1620,7 +1622,7 @@
     <t>JESSICA FRANCIELI DE SOUZA ALMEIDA</t>
   </si>
   <si>
-    <t>locawebcommerce-176</t>
+    <t>JESSICAFRANCIELIDESOUZAALMEIDA</t>
   </si>
   <si>
     <t>JSOUZA@TRAY.NET.BR</t>
@@ -1629,7 +1631,7 @@
     <t>JESSICA MESSIAS MARINHO</t>
   </si>
   <si>
-    <t>locawebcommerce-177</t>
+    <t>JéssicaMessiasMarinho</t>
   </si>
   <si>
     <t>JESSICA.MARINHO@TRAY.NET.BR</t>
@@ -1638,7 +1640,7 @@
     <t>JOAO GABRIEL PIERACO SILVA</t>
   </si>
   <si>
-    <t>locawebcommerce-178</t>
+    <t>JoãoGabrielPieraçoSilva</t>
   </si>
   <si>
     <t>JOAO.GABRIEL@TRAY.NET.BR</t>
@@ -1647,7 +1649,7 @@
     <t>JOAO PAULO DOS SANTOS MORIJO</t>
   </si>
   <si>
-    <t>locawebcommerce-179</t>
+    <t>JoãoPaulodosSantosMorijo</t>
   </si>
   <si>
     <t>JMORIJO@TRAY.NET.BR</t>
@@ -1656,7 +1658,7 @@
     <t>JOÃO VICTOR FAUSTINO PIGA LOPES</t>
   </si>
   <si>
-    <t>locawebcommerce-180</t>
+    <t>JoãoVictorFaustinoPigaLopes</t>
   </si>
   <si>
     <t>JOAO.LOPES@TRAY.NET.BR</t>
@@ -1665,7 +1667,7 @@
     <t>JOÃO VICTOR LOURENÇO BATISTA</t>
   </si>
   <si>
-    <t>locawebcommerce-181</t>
+    <t>JoãoVictorLourençoBatista</t>
   </si>
   <si>
     <t>JOAO.BATISTA@TRAY.NET.BR</t>
@@ -1674,7 +1676,7 @@
     <t>JOAO VICTOR MESQUITA</t>
   </si>
   <si>
-    <t>locawebcommerce-182</t>
+    <t>JoãoVictorMesquita</t>
   </si>
   <si>
     <t>JMESQUITA@TRAY.NET.BR</t>
@@ -1683,7 +1685,7 @@
     <t>JOAO VITOR DE LIMA PEREZ</t>
   </si>
   <si>
-    <t>locawebcommerce-183</t>
+    <t>JoãoVitordeLimaPerez</t>
   </si>
   <si>
     <t>JOAO.PEREZ@TRAY.NET.BR</t>
@@ -1692,7 +1694,7 @@
     <t>JOSE AUGUSTO LOURENÇÃO NETO</t>
   </si>
   <si>
-    <t>locawebcommerce-184</t>
+    <t>JoséAugustoLourençãoNeto</t>
   </si>
   <si>
     <t>JOSE.NETO@TRAY.NET.BR</t>
@@ -1701,7 +1703,7 @@
     <t>JOSE CARLOS PINELI</t>
   </si>
   <si>
-    <t>locawebcommerce-185</t>
+    <t>JoséCarlosPineli</t>
   </si>
   <si>
     <t>JPINELI@TRAY.NET.BR</t>
@@ -1710,7 +1712,7 @@
     <t>JOSÉ MÁRCIO MENDES DA SILVA</t>
   </si>
   <si>
-    <t>locawebcommerce-186</t>
+    <t>JoséMárcioMendesdaSilva</t>
   </si>
   <si>
     <t>JOSE.SILVA@TRAY.NET.BR</t>
@@ -1719,7 +1721,7 @@
     <t>JOSE NOBRE CAMARA FILHO</t>
   </si>
   <si>
-    <t>locawebcommerce-187</t>
+    <t>JoséNobre</t>
   </si>
   <si>
     <t>JOSE.NOBRE@TRAY.NET.BR</t>
@@ -1728,7 +1730,7 @@
     <t>JOSE RENATO GARCIA MARTINEZ MARTINS</t>
   </si>
   <si>
-    <t>locawebcommerce-188</t>
+    <t>JoséRenatoGarciaMartinezMartins</t>
   </si>
   <si>
     <t>JOSE.MARTINS@TRAY.NET.BR</t>
@@ -1737,7 +1739,7 @@
     <t>JOSE RENATO ZOCCHIO FARIA</t>
   </si>
   <si>
-    <t>locawebcommerce-189</t>
+    <t>locaweb-6</t>
   </si>
   <si>
     <t>JOSE.FARIA@TRAYCORP.COM.BR</t>
@@ -1746,7 +1748,7 @@
     <t>JOSIANE BALBINO MARTTOS PUTTI</t>
   </si>
   <si>
-    <t>locawebcommerce-190</t>
+    <t>JosianeMarttos</t>
   </si>
   <si>
     <t>JOSIANE.MARTTOS@TRAY.NET.BR</t>
@@ -1755,7 +1757,7 @@
     <t>JULIANA VITORIA ALVES DA SILVA</t>
   </si>
   <si>
-    <t>locawebcommerce-191</t>
+    <t>JulianaAlves</t>
   </si>
   <si>
     <t>JULIANA.SILVA@TRAY.NET.BR</t>
@@ -1764,7 +1766,7 @@
     <t>KENNY RAFAEL CORREA GUILHERME</t>
   </si>
   <si>
-    <t>locawebcommerce-192</t>
+    <t>KennyRafaelCorreia</t>
   </si>
   <si>
     <t>KENNY.GUILHERME@TRAY.NET.BR</t>
@@ -1773,7 +1775,7 @@
     <t>KLEBER DEODATO ESBRIQUE</t>
   </si>
   <si>
-    <t>locawebcommerce-193</t>
+    <t>KleberDeodatoEsbrique</t>
   </si>
   <si>
     <t>KDEODATO@TRAY.NET.BR</t>
@@ -1782,7 +1784,7 @@
     <t>LARISSA DOS SANTOS DA SILVA</t>
   </si>
   <si>
-    <t>locawebcommerce-194</t>
+    <t>LarissadosSantosdaSilva</t>
   </si>
   <si>
     <t>LARISSA.SILVA@TRAYCORP.COM.BR</t>
@@ -1791,7 +1793,7 @@
     <t>LARISSA RIBEIRO MARTINS</t>
   </si>
   <si>
-    <t>locawebcommerce-195</t>
+    <t>LarissaRibeiroMartins</t>
   </si>
   <si>
     <t>LARISSA.MARTINS@TRAY.NET.BR</t>
@@ -1800,7 +1802,7 @@
     <t>LEANDRO CORREIA DA COSTA</t>
   </si>
   <si>
-    <t>locawebcommerce-196</t>
+    <t>LeandroCorreiadaCosta</t>
   </si>
   <si>
     <t>LEANDRO.COSTA@TRAY.NET.BR</t>
@@ -1809,7 +1811,7 @@
     <t>LEANDRO DONDA FIORINI</t>
   </si>
   <si>
-    <t>locawebcommerce-197</t>
+    <t>LeandroDondaFiorini</t>
   </si>
   <si>
     <t>LEANDRO.FIORINI@TRAY.NET.BR</t>
@@ -1818,7 +1820,7 @@
     <t>LEONARDO CALIANI RUELLAS</t>
   </si>
   <si>
-    <t>locawebcommerce-198</t>
+    <t>LeonardoCalianiRuellas</t>
   </si>
   <si>
     <t>LEONARDO.RUELLAS@TRAY.NET.BR</t>
@@ -1827,7 +1829,7 @@
     <t>LEONARDO MARQUES BORTOLOTTI</t>
   </si>
   <si>
-    <t>locawebcommerce-199</t>
+    <t>LeonardoBortolotti</t>
   </si>
   <si>
     <t>LEONARDO.BORTOLOTI@TRAY.NET.BR</t>
@@ -1836,7 +1838,7 @@
     <t>LEONARDO MATEUS BRAVO DE SOUZA</t>
   </si>
   <si>
-    <t>locawebcommerce-200</t>
+    <t>LeonardoMateusBravoDeSouza</t>
   </si>
   <si>
     <t>LEONARDO.SOUZA@TRAY.NET.BR</t>
@@ -1845,7 +1847,7 @@
     <t>LETICIA PAMELA DA SILVA</t>
   </si>
   <si>
-    <t>locawebcommerce-201</t>
+    <t>LetíciaPamelada</t>
   </si>
   <si>
     <t>LSILVA@TRAY.NET.BR</t>
@@ -1854,7 +1856,7 @@
     <t>LETICIA PORPETA LAVAGNINI</t>
   </si>
   <si>
-    <t>locawebcommerce-202</t>
+    <t>LetíciaLavagnini</t>
   </si>
   <si>
     <t>LETICIA.LAVAGNINI@TRAY.NET.BR</t>
@@ -1863,7 +1865,7 @@
     <t>LEVI EURICO LOPES JUNIOR</t>
   </si>
   <si>
-    <t>locawebcommerce-203</t>
+    <t>LeviEuricoLopesJunior</t>
   </si>
   <si>
     <t>LEVI.JUNIOR@TRAY.NET.BR</t>
@@ -1872,7 +1874,7 @@
     <t>LIGIA SOARES ROSA</t>
   </si>
   <si>
-    <t>locawebcommerce-204</t>
+    <t>LigiaSoares</t>
   </si>
   <si>
     <t>LROSA@TRAY.NET.BR</t>
@@ -1881,7 +1883,7 @@
     <t>LUCAS HENRIQUE SANTOS DO CARMO</t>
   </si>
   <si>
-    <t>locawebcommerce-205</t>
+    <t>LucasHenriqueSantosdoCarmo</t>
   </si>
   <si>
     <t>LUCAS.CARMO@TRAY.NET.BR</t>
@@ -1890,7 +1892,7 @@
     <t>LUCAS JOSE BARRETO CASTRO</t>
   </si>
   <si>
-    <t>locawebcommerce-206</t>
+    <t>LucasJoséBarretoCastro</t>
   </si>
   <si>
     <t>LUCAS.CASTRO@TRAY.NET.BR</t>
@@ -1899,7 +1901,7 @@
     <t>LUCAS KENZO BENFICA MATSUI</t>
   </si>
   <si>
-    <t>locawebcommerce-207</t>
+    <t>LucasKenzoBenficaMatsui</t>
   </si>
   <si>
     <t>LUCAS.MATSUI@TRAY.NET.BR</t>
@@ -1908,7 +1910,7 @@
     <t>LUCAS RODRIGUES TOTTI</t>
   </si>
   <si>
-    <t>locawebcommerce-208</t>
+    <t>LucasRodriguesTotti</t>
   </si>
   <si>
     <t>LUCAS.TOTTI@TRAY.NET.BR</t>
@@ -1917,7 +1919,7 @@
     <t>LUCIANO MANUEL DA SILVA</t>
   </si>
   <si>
-    <t>locawebcommerce-209</t>
+    <t>LucianoManueldaSilva</t>
   </si>
   <si>
     <t>LUCIANO.SILVA@TRAY.NET.BR</t>
@@ -1926,7 +1928,7 @@
     <t>LUIS GUSTAVO COLOMBO</t>
   </si>
   <si>
-    <t>locawebcommerce-210</t>
+    <t>LuisGustavoColombo</t>
   </si>
   <si>
     <t>GUSTAVO.COLOMBO@TRAY.NET.BR</t>
@@ -1935,7 +1937,7 @@
     <t>LUIS GUSTAVO DE SOUZA ANTAO</t>
   </si>
   <si>
-    <t>locawebcommerce-211</t>
+    <t>GustavoAntão</t>
   </si>
   <si>
     <t>LUIS.SOUZA@TRAY.NET.BR</t>
@@ -1944,7 +1946,7 @@
     <t>LUIS HENRIQUE SOUSA COSTA</t>
   </si>
   <si>
-    <t>locawebcommerce-212</t>
+    <t>LuisHenriqueSousaCosta</t>
   </si>
   <si>
     <t>LCOSTA@TRAY.NET.BR</t>
@@ -1953,7 +1955,7 @@
     <t>MAIRA FABIANA DOS SANTOS</t>
   </si>
   <si>
-    <t>locawebcommerce-213</t>
+    <t>MairaSantos</t>
   </si>
   <si>
     <t>MAIRA.FABIANA@TRAY.NET.BR</t>
@@ -1962,7 +1964,7 @@
     <t>MARCELA RULFINI BARBOSA</t>
   </si>
   <si>
-    <t>locawebcommerce-214</t>
+    <t>MarcelaRulfiniBarbosa</t>
   </si>
   <si>
     <t>MARCELA.BARBOSA@TRAY.NET.BR</t>
@@ -1971,7 +1973,7 @@
     <t>MARCELO CRISTIAN WINTER</t>
   </si>
   <si>
-    <t>locawebcommerce-215</t>
+    <t>MarceloCristianWinter</t>
   </si>
   <si>
     <t>MARCELO.WINTER@TRAY.NET.BR</t>
@@ -1980,7 +1982,7 @@
     <t>MARCOS AUGUSTO PINTO</t>
   </si>
   <si>
-    <t>locawebcommerce-216</t>
+    <t>MarcosAugustoPinto</t>
   </si>
   <si>
     <t>MARCOS.AUGUSTO@TRAY.NET.BR</t>
@@ -1989,7 +1991,7 @@
     <t>MARCUS VINICIUS ESPERANDINO SILVA</t>
   </si>
   <si>
-    <t>locawebcommerce-217</t>
+    <t>MarcusViniciusSilva</t>
   </si>
   <si>
     <t>MVINICIUS@TRAY.NET.BR</t>
@@ -1998,7 +2000,7 @@
     <t>MARIA ALICE CAMPAGNOLI OTRE</t>
   </si>
   <si>
-    <t>locawebcommerce-218</t>
+    <t>MariaAliceCampagnoliOtre</t>
   </si>
   <si>
     <t>MARIA.OTRE@TRAY.NET.BR</t>
@@ -2007,7 +2009,7 @@
     <t>MARIA FERNANDA DE SANT ANA</t>
   </si>
   <si>
-    <t>locawebcommerce-219</t>
+    <t>MariaFernandadeSantana</t>
   </si>
   <si>
     <t>MARIA.SANTANA@TRAY.NET.BR</t>
@@ -2016,7 +2018,7 @@
     <t>MARIANA BIAZIO MELO</t>
   </si>
   <si>
-    <t>locawebcommerce-220</t>
+    <t>MarianaBiazioMelo</t>
   </si>
   <si>
     <t>MARIANA.MELO@TRAY.NET.BR</t>
@@ -2025,7 +2027,7 @@
     <t>MARIANA DE CARVALHO TRONCO</t>
   </si>
   <si>
-    <t>locawebcommerce-221</t>
+    <t>MarianadeCarvalhoTronco</t>
   </si>
   <si>
     <t>MARIANA.TRONCO@TRAY.NET.BR</t>
@@ -2034,7 +2036,7 @@
     <t>MARILIA VETTORAZZO HANNA LOSITO</t>
   </si>
   <si>
-    <t>locawebcommerce-222</t>
+    <t>MaríliaLosito</t>
   </si>
   <si>
     <t>MARILIA.LOSITO@TRAYCORP.COM.BR</t>
@@ -2043,7 +2045,7 @@
     <t>MARLON DAVID GARCIA DE OLIVEIRA</t>
   </si>
   <si>
-    <t>locawebcommerce-223</t>
+    <t>MarlonDavidGarciadeOliveira</t>
   </si>
   <si>
     <t>MARLON.OLIVEIRA@TRAY.NET.BR</t>
@@ -2052,7 +2054,7 @@
     <t>MATEUS APARECIDO VILELA</t>
   </si>
   <si>
-    <t>locawebcommerce-224</t>
+    <t>MateusAparecidoVilela</t>
   </si>
   <si>
     <t>MVILELA@TRAY.NET.BR</t>
@@ -2061,7 +2063,7 @@
     <t>MATHEUS CARLOS DE CARVALHO</t>
   </si>
   <si>
-    <t>locawebcommerce-225</t>
+    <t>MatheusCarlosdeCarvalho</t>
   </si>
   <si>
     <t>MATHEUS.CARVALHO@TRAY.NET.BR</t>
@@ -2070,7 +2072,7 @@
     <t>MATHEUS FILIPE BARBOSA ALEIXO</t>
   </si>
   <si>
-    <t>locawebcommerce-226</t>
+    <t>MatheusFilipeBarbosaAleixo</t>
   </si>
   <si>
     <t>MATHEUS.ALEIXO@TRAY.NET.BR</t>
@@ -2079,7 +2081,7 @@
     <t>MATHEUS MANCO PILLON</t>
   </si>
   <si>
-    <t>locawebcommerce-227</t>
+    <t>MatheusMançoPillon</t>
   </si>
   <si>
     <t>MATHEUS.PILLON@TRAY.NET.BR</t>
@@ -2088,7 +2090,7 @@
     <t>MATHEUS WAGNER BUENO</t>
   </si>
   <si>
-    <t>locawebcommerce-228</t>
+    <t>MatheusWagnerBueno</t>
   </si>
   <si>
     <t>MATHEUS.BUENO@TRAY.NET.BR</t>
@@ -2097,7 +2099,7 @@
     <t>MAYCON JUNIOR BUENO</t>
   </si>
   <si>
-    <t>locawebcommerce-229</t>
+    <t>MayconJuniorBueno</t>
   </si>
   <si>
     <t>MAYCON.BUENO@TRAY.NET.BR</t>
@@ -2106,7 +2108,7 @@
     <t>MICHELE BRAVO DE SOUZA</t>
   </si>
   <si>
-    <t>locawebcommerce-230</t>
+    <t>MicheleBravodeSouza</t>
   </si>
   <si>
     <t>MSOUZA@TRAY.NET.BR</t>
@@ -2115,7 +2117,7 @@
     <t>MICHELE CAROLINE TEIXEIRA DE OLIVEIRA</t>
   </si>
   <si>
-    <t>locawebcommerce-231</t>
+    <t>MicheleCarolineTeixeiradeOliveira</t>
   </si>
   <si>
     <t>MICHELE.OLIVEIRA@TRAY.NET.BR</t>
@@ -2124,7 +2126,7 @@
     <t>MIRIAN APARECIDA DAS GRACAS GRILO SOUZA</t>
   </si>
   <si>
-    <t>locawebcommerce-232</t>
+    <t>MirianGrilo</t>
   </si>
   <si>
     <t>MIRIAN.GRILO@TRAYCORP.COM.BR</t>
@@ -2133,7 +2135,7 @@
     <t>MOISES MOFATO DE SOUZA</t>
   </si>
   <si>
-    <t>locawebcommerce-233</t>
+    <t>MoisesMofatodeSouza</t>
   </si>
   <si>
     <t>MMOFATO@TRAY.NET.BR</t>
@@ -2142,7 +2144,7 @@
     <t>MONICA GREGORIO COLOMERA</t>
   </si>
   <si>
-    <t>locawebcommerce-234</t>
+    <t>MônicaColomera</t>
   </si>
   <si>
     <t>MONICA.COLOMERA@TRAY.NET.BR</t>
@@ -2151,7 +2153,7 @@
     <t>MONICA SUEMI TAKANO</t>
   </si>
   <si>
-    <t>locawebcommerce-235</t>
+    <t>MonicaSuemiTakano</t>
   </si>
   <si>
     <t>MTAKANO@TRAY.NET.BR</t>
@@ -2160,7 +2162,7 @@
     <t>MURILLO HENRIQUE RIBEIRO</t>
   </si>
   <si>
-    <t>locawebcommerce-236</t>
+    <t>MurilloHenriqueRibeiro</t>
   </si>
   <si>
     <t>MURILLO.RIBEIRO@TRAY.NET.BR</t>
@@ -2169,7 +2171,7 @@
     <t>NATALIA FERNANDA DE SOUZA SILVA</t>
   </si>
   <si>
-    <t>locawebcommerce-237</t>
+    <t>NataliaFernandadeSouzaSilva</t>
   </si>
   <si>
     <t>NSILVA@TRAY.NET.BR</t>
@@ -2178,7 +2180,7 @@
     <t>NATÁLIA MASSUCATO FONSECA</t>
   </si>
   <si>
-    <t>locawebcommerce-238</t>
+    <t>NataliaMassucatoFonseca</t>
   </si>
   <si>
     <t>NATALIA.FONSECA@TRAY.NET.BR</t>
@@ -2187,7 +2189,7 @@
     <t>NATHAN VITIVER NOVAES</t>
   </si>
   <si>
-    <t>locawebcommerce-239</t>
+    <t>NathanVitiverNovaes</t>
   </si>
   <si>
     <t>NATHAN.NOVAES@TRAY.NET.BR</t>
@@ -2196,7 +2198,7 @@
     <t>NAYARA JAMILE DA SILVA XAVIER</t>
   </si>
   <si>
-    <t>locawebcommerce-240</t>
+    <t>NayaraJamiledaSilvaXavier</t>
   </si>
   <si>
     <t>NAYARA.XAVIER@TRAY.NET.BR</t>
@@ -2205,7 +2207,7 @@
     <t>NELSON DE OLIVEIRA SOUSA</t>
   </si>
   <si>
-    <t>locawebcommerce-241</t>
+    <t>NelsondeOliveiraSousa</t>
   </si>
   <si>
     <t>NELSON.SOUSA@TRAY.COM.BR</t>
@@ -2214,7 +2216,7 @@
     <t>NELSON ESPADOTO CARDOSO DE SOUZA</t>
   </si>
   <si>
-    <t>locawebcommerce-242</t>
+    <t>NelsonEspadotoCardosodeSouza</t>
   </si>
   <si>
     <t>NELSON.CARDOSO@TRAY.NET.BR</t>
@@ -2223,7 +2225,7 @@
     <t>PAMELA DE OLIVEIRA BARROS</t>
   </si>
   <si>
-    <t>locawebcommerce-243</t>
+    <t>PamelaBarros</t>
   </si>
   <si>
     <t>PAMELA.BARROS@TRAY.NET.BR</t>
@@ -2232,7 +2234,7 @@
     <t>PATRICIA APARECIDA INACIO</t>
   </si>
   <si>
-    <t>locawebcommerce-244</t>
+    <t>PATRICIAAPARECIDAINACIO</t>
   </si>
   <si>
     <t>PAPARECIDA@TRAY.NET.BR</t>
@@ -2241,7 +2243,7 @@
     <t>PAULA DE OLIVEIRA RODRIGUES</t>
   </si>
   <si>
-    <t>locawebcommerce-245</t>
+    <t>PaulaOliveiraRodrigues</t>
   </si>
   <si>
     <t>PAULA.RODRIGUES@TRAY.NET.BR</t>
@@ -2250,7 +2252,7 @@
     <t>PAULO ROGERIO DE FREITAS RAMOS</t>
   </si>
   <si>
-    <t>locawebcommerce-246</t>
+    <t>PauloRogériodeFreitasRamos</t>
   </si>
   <si>
     <t>PAULO.RAMOS@TRAY.NET.BR</t>
@@ -2259,7 +2261,7 @@
     <t>PAULO WAIB CASTELLO BRANCO</t>
   </si>
   <si>
-    <t>locawebcommerce-247</t>
+    <t>PauloWaibCastelloBranco</t>
   </si>
   <si>
     <t>PAULO.BRANCO@TRAY.NET.BR</t>
@@ -2268,7 +2270,7 @@
     <t>PEDRO HENRIQUE RODRIGUES</t>
   </si>
   <si>
-    <t>locawebcommerce-248</t>
+    <t>PedroHenriqueRodrigues</t>
   </si>
   <si>
     <t>PHRODRIGUES@TRAY.NET.BR</t>
@@ -2277,7 +2279,7 @@
     <t>PEDRO HENRIQUE SOBRAL</t>
   </si>
   <si>
-    <t>locawebcommerce-249</t>
+    <t>PedroHenriqueSobral</t>
   </si>
   <si>
     <t>PEDRO.SOBRAL@TRAY.NET.BR</t>
@@ -2286,7 +2288,7 @@
     <t>PEDRO ROBSON ACARINE FELIX DOS SANTOS</t>
   </si>
   <si>
-    <t>locawebcommerce-250</t>
+    <t>PEDROROBSONACARINEFELIXDOSSANTOS</t>
   </si>
   <si>
     <t>PEDRO.SANTOS@TRAY.NET.BR</t>
@@ -2295,7 +2297,7 @@
     <t>PRISCILA TOLENTINO DE SOUZA</t>
   </si>
   <si>
-    <t>locawebcommerce-251</t>
+    <t>PriscilaTolentinodeSouza</t>
   </si>
   <si>
     <t>PSOUZA@TRAY.NET.BR</t>
@@ -2304,7 +2306,7 @@
     <t>RAFAEL DE OLIVEIRA PARISI</t>
   </si>
   <si>
-    <t>locawebcommerce-252</t>
+    <t>RafaeldeOliveiraParisi</t>
   </si>
   <si>
     <t>RPARISI@TRAY.NET.BR</t>
@@ -2313,7 +2315,7 @@
     <t>RAFAEL GOMES DA LUZ</t>
   </si>
   <si>
-    <t>locawebcommerce-253</t>
+    <t>RafaelGomesdaLuz</t>
   </si>
   <si>
     <t>RAFAEL.LUZ@TRAY.NET.BR</t>
@@ -2322,7 +2324,7 @@
     <t>RAFAEL LOPES BASTOS</t>
   </si>
   <si>
-    <t>locawebcommerce-254</t>
+    <t>RafaelLopesbastos</t>
   </si>
   <si>
     <t>RAFAEL.LOPES@TRAY.NET.BR</t>
@@ -2331,7 +2333,7 @@
     <t>RAFAEL PASCOTTO SHIMABUKU</t>
   </si>
   <si>
-    <t>locawebcommerce-255</t>
+    <t>RafaelPascottoShimabuku</t>
   </si>
   <si>
     <t>RAFAEL.SHIMABUKU@TRAY.NET.BR</t>
@@ -2340,7 +2342,7 @@
     <t>RAFAEL TOME</t>
   </si>
   <si>
-    <t>locawebcommerce-256</t>
+    <t>RafaelTomé</t>
   </si>
   <si>
     <t>RAFAEL.TOME@TRAY.NET.BR</t>
@@ -2349,7 +2351,7 @@
     <t>RAFAELE CAMILA DE SÁ</t>
   </si>
   <si>
-    <t>locawebcommerce-257</t>
+    <t>RafaeleCamiladeSá</t>
   </si>
   <si>
     <t>RAFAELE.CAMILA@TRAY.NET.BR</t>
@@ -2358,7 +2360,7 @@
     <t>RAUL MENDONÇA DE SOUZA</t>
   </si>
   <si>
-    <t>locawebcommerce-258</t>
+    <t>RaulMendonçadeSouza</t>
   </si>
   <si>
     <t>RAUL.SOUZA@TRAY.NET.BR</t>
@@ -2367,7 +2369,7 @@
     <t>REINALDO NAGASSE DE MATTOS</t>
   </si>
   <si>
-    <t>locawebcommerce-259</t>
+    <t>ReinaldoNagassedeMattos</t>
   </si>
   <si>
     <t>RMATTOS@TRAY.NET.BR</t>
@@ -2376,7 +2378,7 @@
     <t>RENAN MARQUES DE SOUZA POCINHO</t>
   </si>
   <si>
-    <t>locawebcommerce-260</t>
+    <t>RenanMarquesdeSouzaPocinho</t>
   </si>
   <si>
     <t>RENAN.POCINHO@TRAY.NET.BR</t>
@@ -2385,7 +2387,7 @@
     <t>RENATA SALOMAO AIDAR</t>
   </si>
   <si>
-    <t>locawebcommerce-261</t>
+    <t>RenataSalomãoAidar</t>
   </si>
   <si>
     <t>RENATA.AIDAR@TRAY.NET.BR</t>
@@ -2394,7 +2396,7 @@
     <t>RENATO FILIPE GOMEZ GONCALVES PAULINO</t>
   </si>
   <si>
-    <t>locawebcommerce-262</t>
+    <t>RenatoFilipeGomezGonçalvesPaulino</t>
   </si>
   <si>
     <t>RENATO.GOMEZ@TRAYCORP.COM.BR</t>
@@ -2403,7 +2405,7 @@
     <t>RENATO LIMA MANCERA</t>
   </si>
   <si>
-    <t>locawebcommerce-263</t>
+    <t>RenatoMancera</t>
   </si>
   <si>
     <t>RMANCERA@TRAY.NET.BR</t>
@@ -2412,7 +2414,7 @@
     <t>RENATO PEREIRA GONCALVES PAULINO</t>
   </si>
   <si>
-    <t>locawebcommerce-264</t>
+    <t>RenatoPereiraGonçalvesPaulino</t>
   </si>
   <si>
     <t>RPAULINO@TRAY.NET.BR</t>
@@ -2421,7 +2423,7 @@
     <t>RENNE TOMAZINI GALLI</t>
   </si>
   <si>
-    <t>locawebcommerce-265</t>
+    <t>RenneTomaziniGalli</t>
   </si>
   <si>
     <t>RGALLI@TRAY.NET.BR</t>
@@ -2430,7 +2432,7 @@
     <t>RICARDO PAULINO DE FREITAS</t>
   </si>
   <si>
-    <t>locawebcommerce-266</t>
+    <t>RicardoFreitas</t>
   </si>
   <si>
     <t>RICARDO.FREITAS@TRAY.NET.BR</t>
@@ -2439,7 +2441,7 @@
     <t>RICARDO UMBERTO PRADO</t>
   </si>
   <si>
-    <t>locawebcommerce-267</t>
+    <t>RicardoPrado</t>
   </si>
   <si>
     <t>RPRADO@TRAY.NET.BR</t>
@@ -2448,7 +2450,7 @@
     <t>RICHARD OLIVEIRA DOS SANTOS</t>
   </si>
   <si>
-    <t>locawebcommerce-268</t>
+    <t>locaweb-7</t>
   </si>
   <si>
     <t>RSANTOS@TRAY.NET.BR</t>
@@ -2457,7 +2459,7 @@
     <t>ROBERTO ALMEIDA E SILVA JUNIOR</t>
   </si>
   <si>
-    <t>locawebcommerce-269</t>
+    <t>RobertoSilvaJunior</t>
   </si>
   <si>
     <t>RJUNIOR@TRAY.NET.BR</t>
@@ -2466,7 +2468,7 @@
     <t>ROBERTO VIETRI JUNIOR</t>
   </si>
   <si>
-    <t>locawebcommerce-270</t>
+    <t>RobertoVietri</t>
   </si>
   <si>
     <t>ROBERTO.VIETRI@TRAYCORP.COM.BR</t>
@@ -2475,7 +2477,7 @@
     <t>RODOLFO ADHENAWER CAMPAGNOLI MORAES</t>
   </si>
   <si>
-    <t>locawebcommerce-271</t>
+    <t>RodolfoAdhenawerCampagnoli</t>
   </si>
   <si>
     <t>RMORAES@TRAY.NET.BR</t>
@@ -2484,7 +2486,7 @@
     <t>RODRIGO NEVES DAMASCENO</t>
   </si>
   <si>
-    <t>locawebcommerce-272</t>
+    <t>RodrigoNevesDamasceno</t>
   </si>
   <si>
     <t>RODRIGO.DAMASCENO@TRAY.NET.BR</t>
@@ -2493,7 +2495,7 @@
     <t>RODRIGO PEREIRA</t>
   </si>
   <si>
-    <t>locawebcommerce-273</t>
+    <t>RodrigoPereira</t>
   </si>
   <si>
     <t>RPEREIRA@TRAY.NET.BR</t>
@@ -2502,7 +2504,7 @@
     <t>RONALD GONZAGA DA SILVA</t>
   </si>
   <si>
-    <t>locawebcommerce-274</t>
+    <t>RonaldGonzagadaSilva</t>
   </si>
   <si>
     <t>RONALD.SILVA@TRAY.NET.BR</t>
@@ -2511,7 +2513,7 @@
     <t>ROSANA GARCIA</t>
   </si>
   <si>
-    <t>locawebcommerce-275</t>
+    <t>RosanaGarcia</t>
   </si>
   <si>
     <t>ROSANA.GARCIA@TRAY.NET.BR</t>
@@ -2520,7 +2522,7 @@
     <t>SAMUEL SABINO DA SILVA</t>
   </si>
   <si>
-    <t>locawebcommerce-276</t>
+    <t>SamuelSabinodaSilva</t>
   </si>
   <si>
     <t>SAMUEL.SILVA@TRAY.NET.BR</t>
@@ -2529,7 +2531,7 @@
     <t>SILVIA APARECIDA DOS SANTOS DA FONSECA</t>
   </si>
   <si>
-    <t>locawebcommerce-277</t>
+    <t>SilviaAparecidadosSantosdaFonseca</t>
   </si>
   <si>
     <t>SILVIA.FONSECA@TRAY.NET.BR</t>
@@ -2538,7 +2540,7 @@
     <t>SUELLEN CRISTINA DA SILVA MARTINS LEANDRO</t>
   </si>
   <si>
-    <t>locawebcommerce-278</t>
+    <t>SuellenCristinadaSilvaMartinsLeandro</t>
   </si>
   <si>
     <t>SMARTINS@TRAY.NET.BR</t>
@@ -2547,7 +2549,7 @@
     <t>TATIANE PARDIM DA ROCHA MORAIS</t>
   </si>
   <si>
-    <t>locawebcommerce-279</t>
+    <t>TatianePardimdaRochaMorais</t>
   </si>
   <si>
     <t>TATIANE.ROCHA@TRAY.NET.BR</t>
@@ -2556,7 +2558,7 @@
     <t>TAYNA CRISTINA NASCIMENTO</t>
   </si>
   <si>
-    <t>locawebcommerce-280</t>
+    <t>TaynáCristinaNascimento</t>
   </si>
   <si>
     <t>TAYNA.NASCIMENTO@TRAY.NET.BR</t>
@@ -2565,7 +2567,7 @@
     <t>TAYNARA ALMEIDA DE OLIVEIRA</t>
   </si>
   <si>
-    <t>locawebcommerce-281</t>
+    <t>TaynaraAlmeidadeOliveira</t>
   </si>
   <si>
     <t>TAYNARA.OLIVEIRA@TRAY.NET.BR</t>
@@ -2574,7 +2576,7 @@
     <t>TAYNARA SENE OLIVEIRA PEREIRA</t>
   </si>
   <si>
-    <t>locawebcommerce-282</t>
+    <t>TaynaraSeneOliveiraPereira</t>
   </si>
   <si>
     <t>TPEREIRA@TRAY.NET.BR</t>
@@ -2583,7 +2585,7 @@
     <t>THAIS ALVES AGOSTINHO</t>
   </si>
   <si>
-    <t>locawebcommerce-283</t>
+    <t>ThaisAlvesAgostinho</t>
   </si>
   <si>
     <t>THAIS.AGOSTINHO@TRAY.NET.BR</t>
@@ -2592,7 +2594,7 @@
     <t>THIAGO AMÉRICO VOLPONI</t>
   </si>
   <si>
-    <t>locawebcommerce-284</t>
+    <t>ThiagoAméricoVolponi</t>
   </si>
   <si>
     <t>THIAGO.VOLPONI@TRAY.NET.BR</t>
@@ -2601,7 +2603,7 @@
     <t>THIAGO SANTANA MAZETO</t>
   </si>
   <si>
-    <t>locawebcommerce-285</t>
+    <t>THIAGOSANTANAMAZETO</t>
   </si>
   <si>
     <t>TMAZETO@TRAY.NET.BR</t>
@@ -2610,7 +2612,7 @@
     <t>ULISSES DE SOUZA MELO</t>
   </si>
   <si>
-    <t>locawebcommerce-286</t>
+    <t>UlissesdeSouzaMelo</t>
   </si>
   <si>
     <t>ULISSES.MELO@TRAY.NET.BR</t>
@@ -2619,7 +2621,7 @@
     <t>VALDIR AMÂNCIO PEREIRA JUNIOR</t>
   </si>
   <si>
-    <t>locawebcommerce-287</t>
+    <t>ValdirAmancioPereiraJunior</t>
   </si>
   <si>
     <t>VALDIR.JUNIOR@TRAY.NET.BR</t>
@@ -2628,7 +2630,7 @@
     <t>VALERIA FERNANDA DE SOUZA GONÇALVES</t>
   </si>
   <si>
-    <t>locawebcommerce-288</t>
+    <t>ValériaFernandadeSouzaGonçalves</t>
   </si>
   <si>
     <t>VALERIA.FERNANDA@TRAY.NET.BR</t>
@@ -2637,7 +2639,7 @@
     <t>VANDERSON BERNADO DE CARVALHO</t>
   </si>
   <si>
-    <t>locawebcommerce-289</t>
+    <t>VandersonBernardodeCarvalho</t>
   </si>
   <si>
     <t>VANDERSON.CARVALHO@TRAY.NET.BR</t>
@@ -2646,7 +2648,7 @@
     <t>VANESSA PLACONA</t>
   </si>
   <si>
-    <t>locawebcommerce-290</t>
+    <t>VanessaPlacona</t>
   </si>
   <si>
     <t>VANESSA.PLACONA@TRAYCORP.COM.BR</t>
@@ -2655,7 +2657,7 @@
     <t>VINICIO GOMES DE SOUZA</t>
   </si>
   <si>
-    <t>locawebcommerce-291</t>
+    <t>VinicioGomesdeSouza</t>
   </si>
   <si>
     <t>VINICIO.SOUZA@TRAY.NET.BR</t>
@@ -2664,16 +2666,13 @@
     <t>VINICIUS GUIMARAES DE ANDRADE</t>
   </si>
   <si>
-    <t>locawebcommerce-292</t>
-  </si>
-  <si>
     <t>VGUIMARAES@TRAY.NET.BR</t>
   </si>
   <si>
     <t>VINICIUS MURATA SAITO</t>
   </si>
   <si>
-    <t>locawebcommerce-293</t>
+    <t>ViniciusMurataSaito</t>
   </si>
   <si>
     <t>VINICIUS.SAITO@TRAY.NET.BR</t>
@@ -2682,7 +2681,7 @@
     <t>VITOR BOTTINO COTAIT</t>
   </si>
   <si>
-    <t>locawebcommerce-294</t>
+    <t>VitorBottinoCotait</t>
   </si>
   <si>
     <t>VITOR.COTAIT@TRAY.NET.BR</t>
@@ -2691,7 +2690,7 @@
     <t>VITOR LUIZ CERON FERREIRA</t>
   </si>
   <si>
-    <t>locawebcommerce-295</t>
+    <t>VitorLuizCeronFerreira</t>
   </si>
   <si>
     <t>VITOR.FERREIRA@TRAY.NET.BR</t>
@@ -2700,7 +2699,7 @@
     <t>VITOR PESSOA ARAUJO</t>
   </si>
   <si>
-    <t>locawebcommerce-296</t>
+    <t>VitorPessoaAraujo</t>
   </si>
   <si>
     <t>VITOR.ARAUJO@TRAY.NET.BR</t>
@@ -2709,7 +2708,7 @@
     <t>WEBERT FERREIRA DE ALMEIDA</t>
   </si>
   <si>
-    <t>locawebcommerce-297</t>
+    <t>locaweb-8</t>
   </si>
   <si>
     <t>WEBERT.ALMEIDA@TRAY.NET.BR</t>
@@ -2718,7 +2717,7 @@
     <t>WELINGTON FERNANDES MARCONDES</t>
   </si>
   <si>
-    <t>locawebcommerce-298</t>
+    <t>WelingtonFernandesMarcondes</t>
   </si>
   <si>
     <t>WELINGTON.MARCONDES@TRAY.NET.BR</t>
@@ -2727,7 +2726,7 @@
     <t>WELKER BORGES MOREIRA</t>
   </si>
   <si>
-    <t>locawebcommerce-299</t>
+    <t>WelkerBorgesMoreira</t>
   </si>
   <si>
     <t>WELKER.MOREIRA@TRAY.NET.BR</t>
@@ -2736,7 +2735,7 @@
     <t>WELLINGTON GABRIEL BOTIN</t>
   </si>
   <si>
-    <t>locawebcommerce-300</t>
+    <t>WellingtonGabrielBotin</t>
   </si>
   <si>
     <t>WELLINGTON.BOTIN@TRAY.NET.BR</t>
@@ -2745,7 +2744,7 @@
     <t>WELTON MATEUS GARCIA</t>
   </si>
   <si>
-    <t>locawebcommerce-301</t>
+    <t>WeltonMateusGarcia</t>
   </si>
   <si>
     <t>WELTON.MATEUS@TRAY.NET.BR</t>
@@ -2754,7 +2753,7 @@
     <t>WESLEY NAGASHIMA DOS REIS</t>
   </si>
   <si>
-    <t>locawebcommerce-302</t>
+    <t>WesleyNagashimaDosReis</t>
   </si>
   <si>
     <t>WESLEY.REIS@TRAY.NET.BR</t>
@@ -2763,7 +2762,7 @@
     <t>WILHEN HENRIQUE DOS SANTOS</t>
   </si>
   <si>
-    <t>locawebcommerce-303</t>
+    <t>WilhenHenriquedosSantos</t>
   </si>
   <si>
     <t>WILHEN.SANTOS@TRAY.NET.BR</t>
@@ -2772,7 +2771,7 @@
     <t>WILLIAM LOURENCINI</t>
   </si>
   <si>
-    <t>locawebcommerce-304</t>
+    <t>WilliamLourencini</t>
   </si>
   <si>
     <t>WILLIAM.LOURENCINI@TRAY.NET.BR</t>
@@ -2781,7 +2780,7 @@
     <t>WILLIAM PAULINO FREIRE</t>
   </si>
   <si>
-    <t>locawebcommerce-305</t>
+    <t>WilliamPaulinoFreire</t>
   </si>
   <si>
     <t>WILLIAM.PAULINO@TRAY.NET.BR</t>
@@ -2790,7 +2789,7 @@
     <t>WILLIANS CRISTIANO MARQUES</t>
   </si>
   <si>
-    <t>locawebcommerce-306</t>
+    <t>WilliansCristianoMarques</t>
   </si>
   <si>
     <t>WMARQUES@TRAY.NET.BR</t>
@@ -2799,7 +2798,7 @@
     <t>WILSON ROBERTO DA SILVA JUNIOR</t>
   </si>
   <si>
-    <t>locawebcommerce-307</t>
+    <t>WilsonJunior</t>
   </si>
   <si>
     <t>WILSON.JUNIOR@TRAYCORP.COM.BR</t>
@@ -2808,7 +2807,7 @@
     <t>YNGRID OMITO GONZAGA SANTOS</t>
   </si>
   <si>
-    <t>locawebcommerce-308</t>
+    <t>YngridOmitoGonzagaSantos</t>
   </si>
   <si>
     <t>YNGRID.SANTOS@TRAY.NET.BR</t>
@@ -2820,7 +2819,7 @@
     <t>ADRIANO PEDRO DOS SANTOS</t>
   </si>
   <si>
-    <t>locawebcommerce-309</t>
+    <t>AdrianoSantos</t>
   </si>
   <si>
     <t>ADRIANO.SANTOS@YAPAY.COM.BR</t>
@@ -2829,7 +2828,7 @@
     <t>ALINE CAMACARI THOMAZ</t>
   </si>
   <si>
-    <t>locawebcommerce-310</t>
+    <t>AlineCamaçariThomaz</t>
   </si>
   <si>
     <t>ALINE.CAMACARI@YAPAY.COM.BR</t>
@@ -2838,7 +2837,7 @@
     <t>ALINE GONCALVES DE OLIVEIRA</t>
   </si>
   <si>
-    <t>locawebcommerce-311</t>
+    <t>AlineGonçalvesdeOliveira</t>
   </si>
   <si>
     <t>ALINE.OLIVEIRA@YAPAY.COM.BR</t>
@@ -2847,7 +2846,7 @@
     <t>AMANDA TALITA PEREIRA MARTINS PADUIM</t>
   </si>
   <si>
-    <t>locawebcommerce-312</t>
+    <t>AmandaTalitaPereiraMartinsPaduim</t>
   </si>
   <si>
     <t>AMANDA.PADUIM@YAPAY.COM.BR</t>
@@ -2856,7 +2855,7 @@
     <t>ANA FLAVIA DE SOUZA NAVA BAGAGI</t>
   </si>
   <si>
-    <t>locawebcommerce-313</t>
+    <t>AnaFláviadeSouzaNavaBagagi</t>
   </si>
   <si>
     <t>ANA.NAVA@YAPAY.COM.BR</t>
@@ -2865,7 +2864,7 @@
     <t>ANDERSON KUMAGAI</t>
   </si>
   <si>
-    <t>locawebcommerce-314</t>
+    <t>AndersonKumagai</t>
   </si>
   <si>
     <t>ANDERSON.KUMAGAI@YAPAY.COM.BR</t>
@@ -2874,7 +2873,7 @@
     <t>ANDRÉ GONÇALVES SABES</t>
   </si>
   <si>
-    <t>locawebcommerce-315</t>
+    <t>AndréGonçalvesSabes</t>
   </si>
   <si>
     <t>ANDRE.SABES@YAPAY.COM.BR</t>
@@ -2883,7 +2882,7 @@
     <t>ANDRE GUIZARDI DE ABREU</t>
   </si>
   <si>
-    <t>locawebcommerce-316</t>
+    <t>AndreGuizardideAbreu</t>
   </si>
   <si>
     <t>ANDRE.GUIZARDI@YAPAY.COM.BR</t>
@@ -2892,7 +2891,7 @@
     <t>ANDRE LUIZ CARRACO DE CARVALHO</t>
   </si>
   <si>
-    <t>locawebcommerce-317</t>
+    <t>AndreLuizCarracodeCarvalho</t>
   </si>
   <si>
     <t>ANDRE.CARVALHO@YAPAY.COM.BR</t>
@@ -2901,7 +2900,7 @@
     <t>ANDRESSA BRAVOS YAMAGUCHI VIEIRA</t>
   </si>
   <si>
-    <t>locawebcommerce-318</t>
+    <t>AndressaBravosYamaguchi</t>
   </si>
   <si>
     <t>ANDRESSA.YAMAGUCHI@YAPAY.COM.BR</t>
@@ -2910,7 +2909,7 @@
     <t>ARAMIS DE OLIVEIRA DOS SANTOS</t>
   </si>
   <si>
-    <t>locawebcommerce-319</t>
+    <t>AramisdeOliveiradosSantos</t>
   </si>
   <si>
     <t>ARAMIS.SANTOS@YAPAY.COM.BR</t>
@@ -2919,7 +2918,7 @@
     <t>BRAYM ABRAO NETTO</t>
   </si>
   <si>
-    <t>locawebcommerce-320</t>
+    <t>BraymAbrãoNetto</t>
   </si>
   <si>
     <t>BRAYM.NETTO@YAPAY.COM.BR</t>
@@ -2928,7 +2927,7 @@
     <t>BRENO MORATO MESQUITA SABELLA</t>
   </si>
   <si>
-    <t>locawebcommerce-321</t>
+    <t>BrenoMoratoMesquitaSabella</t>
   </si>
   <si>
     <t>BRENO.SABELLA@YAPAY.COM.BR</t>
@@ -2937,7 +2936,7 @@
     <t>BRUNO LEONARDO RAMOS</t>
   </si>
   <si>
-    <t>locawebcommerce-322</t>
+    <t>BrunoRamos</t>
   </si>
   <si>
     <t>BRUNO.RAMOS@YAPAY.COM.BR</t>
@@ -2946,7 +2945,7 @@
     <t>CESAR THEODORO DOS SANTOS FILHO</t>
   </si>
   <si>
-    <t>locawebcommerce-323</t>
+    <t>CesarSantos</t>
   </si>
   <si>
     <t>CESAR.FILHO@YAPAY.COM.BR</t>
@@ -2955,7 +2954,7 @@
     <t>CHRISTIAN DO PRADO SILVA</t>
   </si>
   <si>
-    <t>locawebcommerce-324</t>
+    <t>locaweb-9</t>
   </si>
   <si>
     <t>CHRISTIAN.PRADO@YAPAY.COM.BR</t>
@@ -2964,7 +2963,7 @@
     <t>CINTIA CAMILA DE JESUS AKUTAGAWA</t>
   </si>
   <si>
-    <t>locawebcommerce-325</t>
+    <t>CintiaCamilaDeJesusAkutagawa</t>
   </si>
   <si>
     <t>CINTIA.AKUTAGAWA@YAPAY.COM.BR</t>
@@ -2973,7 +2972,7 @@
     <t>CLAUDIO ROBERTO DE SOUZA</t>
   </si>
   <si>
-    <t>locawebcommerce-326</t>
+    <t>ClaudioRobertodeSouza</t>
   </si>
   <si>
     <t>CLAUDIO.SOUZA@YAPAY.COM.BR</t>
@@ -2982,7 +2981,7 @@
     <t>CRISTIANO AUGUSTO SANT ANA</t>
   </si>
   <si>
-    <t>locawebcommerce-327</t>
+    <t>CristianoAugustoSantana</t>
   </si>
   <si>
     <t>CRISTIANO.SANTANA@YAPAY.COM.BR</t>
@@ -2991,7 +2990,7 @@
     <t>CRISTIANO SOARES DOS SANTOS</t>
   </si>
   <si>
-    <t>locawebcommerce-328</t>
+    <t>CristianoSoaresdosSantos</t>
   </si>
   <si>
     <t>CRISTIANO.SOARES@YAPAY.COM.BR</t>
@@ -3000,7 +2999,7 @@
     <t>CRISTINA MULLER DE OLIVEIRA</t>
   </si>
   <si>
-    <t>locawebcommerce-329</t>
+    <t>CristinaMullerdeOliveira</t>
   </si>
   <si>
     <t>CRISTINA.OLIVEIRA@YAPAY.COM.BR</t>
@@ -3009,7 +3008,7 @@
     <t>DANILO ROCHA ALVES</t>
   </si>
   <si>
-    <t>locawebcommerce-330</t>
+    <t>DaniloRochaAlves</t>
   </si>
   <si>
     <t>DANILO.ALVES@YAPAY.COM.BR</t>
@@ -3018,7 +3017,7 @@
     <t>DARIUS ANTONIO CORDEIRO MACHADO BORGES</t>
   </si>
   <si>
-    <t>locawebcommerce-331</t>
+    <t>DariusBorges</t>
   </si>
   <si>
     <t>DARIUS.BORGES@YAPAY.COM.BR</t>
@@ -3027,7 +3026,7 @@
     <t>DOUGLAS RICARDO DA SILVA</t>
   </si>
   <si>
-    <t>locawebcommerce-332</t>
+    <t>DouglasRicardodaSilva</t>
   </si>
   <si>
     <t>DOUGLAS.SILVA@YAPAY.COM.BR</t>
@@ -3036,7 +3035,7 @@
     <t>DULCINEIA APARECIDA ALVES COSTA</t>
   </si>
   <si>
-    <t>locawebcommerce-333</t>
+    <t>DulcineiaAparecidaAlvesCosta</t>
   </si>
   <si>
     <t>DULCINEIA.COSTA@YAPAY.COM.BR</t>
@@ -3045,7 +3044,7 @@
     <t>EDGARD HENRIQUE FERNANDES ROSARIO</t>
   </si>
   <si>
-    <t>locawebcommerce-334</t>
+    <t>locaweb-10</t>
   </si>
   <si>
     <t>EDGARD.ROSARIO@YAPAY.COM.BR</t>
@@ -3054,7 +3053,7 @@
     <t>ERIK UEMURA CAMILO</t>
   </si>
   <si>
-    <t>locawebcommerce-335</t>
+    <t>ErikUemuraCamilo</t>
   </si>
   <si>
     <t>ERIK.UEMURA@YAPAY.COM.BR</t>
@@ -3063,7 +3062,7 @@
     <t>EVANDRO BRUNO ZANATTA</t>
   </si>
   <si>
-    <t>locawebcommerce-336</t>
+    <t>EvandroZanatta</t>
   </si>
   <si>
     <t>EVANDRO.ZANATTA@YAPAY.COM.BR</t>
@@ -3072,7 +3071,7 @@
     <t>FELIPE GADELHA RUOSO</t>
   </si>
   <si>
-    <t>locawebcommerce-337</t>
+    <t>locaweb-11</t>
   </si>
   <si>
     <t>FELIPE.RUOSO@YAPAY.COM.BR</t>
@@ -3081,7 +3080,7 @@
     <t>FERNANDO HENRIQUE DO NASCIMENTO RAMOS</t>
   </si>
   <si>
-    <t>locawebcommerce-338</t>
+    <t>FernandoHenriquedoNascimentoRamos</t>
   </si>
   <si>
     <t>FERNANDO.RAMOS@YAPAY.COM.BR</t>
@@ -3090,7 +3089,7 @@
     <t>FRANCIELLE JACOBINO MARTIN</t>
   </si>
   <si>
-    <t>locawebcommerce-339</t>
+    <t>FrancielleJacobinoMartin</t>
   </si>
   <si>
     <t>FRANCIELLE.MARTIN@YAPAY.COM.BR</t>
@@ -3099,7 +3098,7 @@
     <t>FRANCINE ALVARES SILVA SILVÉRIO</t>
   </si>
   <si>
-    <t>locawebcommerce-340</t>
+    <t>FrancineAlvaresSilvaSilverio</t>
   </si>
   <si>
     <t>FRANCINE.SILVERIO@YAPAY.COM.BR</t>
@@ -3108,7 +3107,7 @@
     <t>GABRIELE CESARIO POLEZEL</t>
   </si>
   <si>
-    <t>locawebcommerce-341</t>
+    <t>GabrieleCesarioPolezel</t>
   </si>
   <si>
     <t>GABRIELE.POLEZEL@YAPAY.COM.BR</t>
@@ -3117,7 +3116,7 @@
     <t>GUILHERME MAIA DA SILVA</t>
   </si>
   <si>
-    <t>locawebcommerce-342</t>
+    <t>GuilhermeMaiadaSilva</t>
   </si>
   <si>
     <t>GUILHERME.MAIA@YAPAY.COM.BR</t>
@@ -3126,7 +3125,7 @@
     <t>GUILHERME RODRIGUES CHIQUETI</t>
   </si>
   <si>
-    <t>locawebcommerce-343</t>
+    <t>GuilhermeRodriguesChiqueti</t>
   </si>
   <si>
     <t>GUILHERME.CHIQUETI@YAPAY.COM.BR</t>
@@ -3135,7 +3134,7 @@
     <t>HENRIQUE GIROLDO DOS SANTOS</t>
   </si>
   <si>
-    <t>locawebcommerce-344</t>
+    <t>HenriqueGiroldodosSantos</t>
   </si>
   <si>
     <t>HENRIQUE.GIROLDO@YAPAY.COM.BR</t>
@@ -3144,7 +3143,7 @@
     <t>ITALO VASCOUTO SILVA</t>
   </si>
   <si>
-    <t>locawebcommerce-345</t>
+    <t>ItaloVascoutoSilva</t>
   </si>
   <si>
     <t>ITALO.VASCOUTO@YAPAY.COM.BR</t>
@@ -3153,7 +3152,7 @@
     <t>IVAN SIMIONATO</t>
   </si>
   <si>
-    <t>locawebcommerce-346</t>
+    <t>IvanSimionato</t>
   </si>
   <si>
     <t>IVAN.SIMIONATO@YAPAY.COM.BR</t>
@@ -3162,7 +3161,7 @@
     <t>JANAINA FOGACA REIS PEREIRA</t>
   </si>
   <si>
-    <t>locawebcommerce-347</t>
+    <t>JanainaFogaçaReisPereira</t>
   </si>
   <si>
     <t>JANAINA.REIS@YAPAY.COM.BR</t>
@@ -3171,7 +3170,7 @@
     <t>JANAINA MOREIRA MEIRA</t>
   </si>
   <si>
-    <t>locawebcommerce-348</t>
+    <t>JanainaMoreiraMeira</t>
   </si>
   <si>
     <t>JANAINA.CAMARA@YAPAY.COM.BR</t>
@@ -3180,7 +3179,7 @@
     <t>JAQUELINE APARECIDA MIRANDA ANDRADE DE MORAES</t>
   </si>
   <si>
-    <t>locawebcommerce-349</t>
+    <t>JaquelineAparecidaMirandaAndradedeMoraes</t>
   </si>
   <si>
     <t>JAQUELINE.MORAES@YAPAY.COM.BR</t>
@@ -3189,7 +3188,7 @@
     <t>JESSICA APARECIDA ESTEVÃO DA SILVA</t>
   </si>
   <si>
-    <t>locawebcommerce-350</t>
+    <t>JéssicaAparecidaEstevãodaSilva</t>
   </si>
   <si>
     <t>JESSICA.SILVA@YAPAY.COM.BR</t>
@@ -3198,7 +3197,7 @@
     <t>JESSICA PRIETO CAETANO</t>
   </si>
   <si>
-    <t>locawebcommerce-351</t>
+    <t>JessicaPrieto</t>
   </si>
   <si>
     <t>JESSICA.CAETANO@YAPAY.COM.BR</t>
@@ -3207,7 +3206,7 @@
     <t>JISLANEY DA SILVA ARAGAO</t>
   </si>
   <si>
-    <t>locawebcommerce-352</t>
+    <t>JislaneySilvaAragão</t>
   </si>
   <si>
     <t>JISLANEY.SILVA@YAPAY.COM.BR</t>
@@ -3216,7 +3215,7 @@
     <t>JOÃO PAULO DE OLIVEIRA CORREIA</t>
   </si>
   <si>
-    <t>locawebcommerce-353</t>
+    <t>locaweb-12</t>
   </si>
   <si>
     <t>JOAO.CORREIA@YAPAY.COM.BR</t>
@@ -3225,7 +3224,7 @@
     <t>JOAO PEDRO TONI BRITO</t>
   </si>
   <si>
-    <t>locawebcommerce-354</t>
+    <t>JoãoPedroToniBrito</t>
   </si>
   <si>
     <t>JOAO.BRITO@YAPAY.COM.BR</t>
@@ -3234,7 +3233,7 @@
     <t>JOÃO VITOR BRAGION DEROLDO DE OLIVEIRA</t>
   </si>
   <si>
-    <t>locawebcommerce-355</t>
+    <t>JoãoVitorBragionDeroldodeOliveira</t>
   </si>
   <si>
     <t>JOAO.OLIVEIRA@YAPAY.COM.BR</t>
@@ -3243,7 +3242,7 @@
     <t>JOSE HENRIQUE HONJOYA</t>
   </si>
   <si>
-    <t>locawebcommerce-356</t>
+    <t>JoséHenriqueHonjoya</t>
   </si>
   <si>
     <t>JOSE.HONJOYA@YAPAY.COM.BR</t>
@@ -3252,7 +3251,7 @@
     <t>JOSE RENATO GALLETTI SILVA</t>
   </si>
   <si>
-    <t>locawebcommerce-357</t>
+    <t>JoséRenatoGallettiSilva</t>
   </si>
   <si>
     <t>RENATO.GALLETTI@YAPAY.COM.BR</t>
@@ -3261,7 +3260,7 @@
     <t>JULIANA PESENTI PANDOLFI</t>
   </si>
   <si>
-    <t>locawebcommerce-358</t>
+    <t>JulianaPesentiPandolfi</t>
   </si>
   <si>
     <t>JULIANA.PANDOLFI@YAPAY.COM.BR</t>
@@ -3270,7 +3269,7 @@
     <t>JULIANA SIMAO FUJARRA</t>
   </si>
   <si>
-    <t>locawebcommerce-359</t>
+    <t>JulianaFujarra</t>
   </si>
   <si>
     <t>JULIANA.FUJARRA@YAPAY.COM.BR</t>
@@ -3279,7 +3278,7 @@
     <t>JULIANA VALERIO INOCENTI</t>
   </si>
   <si>
-    <t>locawebcommerce-360</t>
+    <t>JulianaInocenti</t>
   </si>
   <si>
     <t>JULIANA.INOCENTI@YAPAY.COM.BR</t>
@@ -3288,7 +3287,7 @@
     <t>KATIA TIEMI HIROTSU</t>
   </si>
   <si>
-    <t>locawebcommerce-361</t>
+    <t>locaweb-13</t>
   </si>
   <si>
     <t>KATIA.HIROTSU@YAPAY.COM.BR</t>
@@ -3297,7 +3296,7 @@
     <t>KLEBER BELTRAMI DO AMARAL</t>
   </si>
   <si>
-    <t>locawebcommerce-362</t>
+    <t>KleberBeltramidoAmaral</t>
   </si>
   <si>
     <t>KLEBER.BELTRAMI@YAPAY.COM.BR</t>
@@ -3306,7 +3305,7 @@
     <t>LARISSA DE ALMEIDA FIORIN</t>
   </si>
   <si>
-    <t>locawebcommerce-363</t>
+    <t>LarissadeAlmeidaFiorin</t>
   </si>
   <si>
     <t>LARISSA.FIORIN@YAPAY.COM.BR</t>
@@ -3315,7 +3314,7 @@
     <t>LEANDRO LANZA CHAVES</t>
   </si>
   <si>
-    <t>locawebcommerce-364</t>
+    <t>LeandroLanzaChaves</t>
   </si>
   <si>
     <t>LEANDRO.CHAVES@YAPAY.COM.BR</t>
@@ -3324,7 +3323,7 @@
     <t>LEONARDO CESAR STEPANAVICIUS</t>
   </si>
   <si>
-    <t>locawebcommerce-365</t>
+    <t>LeonardoCesarStepanavicius</t>
   </si>
   <si>
     <t>LEONARDO.STEPANAVICIUS@YAPAY.COM.BR</t>
@@ -3333,7 +3332,7 @@
     <t>LEONARDO JORGE TECCO</t>
   </si>
   <si>
-    <t>locawebcommerce-366</t>
+    <t>LeonardoJorgeTecco</t>
   </si>
   <si>
     <t>LEONARDO.TECCO@YAPAY.COM.BR</t>
@@ -3342,7 +3341,7 @@
     <t>LEONARDO MARTINS ZACCHINI</t>
   </si>
   <si>
-    <t>locawebcommerce-367</t>
+    <t>LeonardoMartinsZacchini</t>
   </si>
   <si>
     <t>LEONARDO.ZACCHINI@YAPAY.COM.BR</t>
@@ -3351,7 +3350,7 @@
     <t>LUCAS CARMICHAEL DOS SANTOS DE OLIVEIRA</t>
   </si>
   <si>
-    <t>locawebcommerce-368</t>
+    <t>LucasCarmichaeldosSantosdeOliveira</t>
   </si>
   <si>
     <t>LUCAS.OLIVEIRA@YAPAY.COM.BR</t>
@@ -3360,7 +3359,7 @@
     <t>LUCIANA DOS SANTOS RICARDO</t>
   </si>
   <si>
-    <t>locawebcommerce-369</t>
+    <t>LucianadosSantosRicardo</t>
   </si>
   <si>
     <t>LUCIANA.SANTOS@YAPAY.COM.BR</t>
@@ -3369,7 +3368,7 @@
     <t>MARCO AURELIO BONINI GALVAO</t>
   </si>
   <si>
-    <t>locawebcommerce-370</t>
+    <t>MarcoAurélioBoniniGalvão</t>
   </si>
   <si>
     <t>MARCO.GALVAO@YAPAY.COM.BR</t>
@@ -3378,7 +3377,7 @@
     <t>MARIANA GARE MENEZES</t>
   </si>
   <si>
-    <t>locawebcommerce-371</t>
+    <t>MarianaGareMenezes</t>
   </si>
   <si>
     <t>MARIANA.GARE@YAPAY.COM.BR</t>
@@ -3387,7 +3386,7 @@
     <t>MARIANE DA SILVA</t>
   </si>
   <si>
-    <t>locawebcommerce-372</t>
+    <t>MarianedaSilva</t>
   </si>
   <si>
     <t>MARIANE.SILVA@YAPAY.COM.BR</t>
@@ -3396,7 +3395,7 @@
     <t>MARIO PAVANINI NETO</t>
   </si>
   <si>
-    <t>locawebcommerce-373</t>
+    <t>MarioPavaniniNeto</t>
   </si>
   <si>
     <t>MARIO.NETO@YAPAY.COM.BR</t>
@@ -3405,7 +3404,7 @@
     <t>MARLON DOS SANTOS SANCHES</t>
   </si>
   <si>
-    <t>locawebcommerce-374</t>
+    <t>MarlondosSantosSanches</t>
   </si>
   <si>
     <t>MARLON.SANCHES@YAPAY.COM.BR</t>
@@ -3414,7 +3413,7 @@
     <t>MATHEUS ANTONIO SILVA</t>
   </si>
   <si>
-    <t>locawebcommerce-375</t>
+    <t>MatheusAntonioSilva</t>
   </si>
   <si>
     <t>MATHEUS.SILVA@YAPAY.COM.BR</t>
@@ -3423,7 +3422,7 @@
     <t>MATHEUS HIDALGO ESTEVES</t>
   </si>
   <si>
-    <t>locawebcommerce-376</t>
+    <t>MATHEUSHIDALGOESTEVES</t>
   </si>
   <si>
     <t>MATHEUS.HIDALGO@YAPAY.COM.BR</t>
@@ -3432,7 +3431,7 @@
     <t>MATHEUS PASSARELI DOS SANTOS</t>
   </si>
   <si>
-    <t>locawebcommerce-377</t>
+    <t>MatheusPassarelidosSantos</t>
   </si>
   <si>
     <t>MATHEUS.SANTOS@YAPAY.COM.BR</t>
@@ -3441,7 +3440,7 @@
     <t>MICHELE NAVARRO GUIMARAES</t>
   </si>
   <si>
-    <t>locawebcommerce-378</t>
+    <t>MicheleNavarroGuimarães</t>
   </si>
   <si>
     <t>MICHELE.GUIMARAES@YAPAY.COM.BR</t>
@@ -3450,7 +3449,7 @@
     <t>MIRELI BRAZ FRUTUOSO</t>
   </si>
   <si>
-    <t>locawebcommerce-379</t>
+    <t>MireliBrazFrutuoso</t>
   </si>
   <si>
     <t>MIRELI.FRUTUOSO@YAPAY.COM.BR</t>
@@ -3459,7 +3458,7 @@
     <t>MURILO GODOY DE OLIVEIRA</t>
   </si>
   <si>
-    <t>locawebcommerce-380</t>
+    <t>MuriloGodoydeOliveira</t>
   </si>
   <si>
     <t>MURILO.OLIVEIRA@YAPAY.COM.BR</t>
@@ -3468,7 +3467,7 @@
     <t>NATALIA TUKOFF GUIMARAES MAIA</t>
   </si>
   <si>
-    <t>locawebcommerce-381</t>
+    <t>NataliaTukoffGuimarãesMaia</t>
   </si>
   <si>
     <t>NATALIA.MAIA@YAPAY.COM.BR</t>
@@ -3477,7 +3476,7 @@
     <t>NATHALIA ADRIELE DE LIMA</t>
   </si>
   <si>
-    <t>locawebcommerce-382</t>
+    <t>NatháliaAdrieledeLima</t>
   </si>
   <si>
     <t>NATHALIA.ADRIELE@YAPAY.COM.BR</t>
@@ -3486,7 +3485,7 @@
     <t>NAYARA PEREIRA DE ARRUDA</t>
   </si>
   <si>
-    <t>locawebcommerce-383</t>
+    <t>NayaraPereiradeArruda</t>
   </si>
   <si>
     <t>NAYARA.ARRUDA@YAPAY.COM.BR</t>
@@ -3495,7 +3494,7 @@
     <t>OSVALDO ZAVANELLI JÚNIOR</t>
   </si>
   <si>
-    <t>locawebcommerce-384</t>
+    <t>OsvaldoZavanelliJúnior</t>
   </si>
   <si>
     <t>OSVALDO.JUNIOR@YAPAY.COM.BR</t>
@@ -3504,7 +3503,7 @@
     <t>PAMELA MAXIMIANO DE ALMEIDA</t>
   </si>
   <si>
-    <t>locawebcommerce-385</t>
+    <t>PamelaMaximianodeAlmeida</t>
   </si>
   <si>
     <t>PAMELA.ALMEIDA@YAPAY.COM.BR</t>
@@ -3513,7 +3512,7 @@
     <t>PATRICIA DA SILVA SANTANA</t>
   </si>
   <si>
-    <t>locawebcommerce-386</t>
+    <t>PatriciadaSilvaSantana</t>
   </si>
   <si>
     <t>PATRICIA.SANTANA@YAPAY.COM.BR</t>
@@ -3522,7 +3521,7 @@
     <t>PRISCILA MENDES DE SOUZA TAGLIANETTI</t>
   </si>
   <si>
-    <t>locawebcommerce-387</t>
+    <t>PriscilaTaglianetti</t>
   </si>
   <si>
     <t>PRISCILA.TAGLIANETTI@YAPAY.COM.BR</t>
@@ -3531,7 +3530,7 @@
     <t>RAFAEL CORONA DA SILVA</t>
   </si>
   <si>
-    <t>locawebcommerce-388</t>
+    <t>RafaelCoronadaSilva</t>
   </si>
   <si>
     <t>RAFAEL.SILVA@YAPAY.COM.BR</t>
@@ -3540,7 +3539,7 @@
     <t>RAFAEL DO COUTO PITO</t>
   </si>
   <si>
-    <t>locawebcommerce-389</t>
+    <t>RafaeldoCoutoPito</t>
   </si>
   <si>
     <t>RAFAEL.COUTO@YAPAY.COM.BR</t>
@@ -3549,7 +3548,7 @@
     <t>RAFAEL TAKASHI TANAKA</t>
   </si>
   <si>
-    <t>locawebcommerce-390</t>
+    <t>RafaelTakashiTanaka</t>
   </si>
   <si>
     <t>RAFAEL.TAKASHI@YAPAY.COM.BR</t>
@@ -3558,7 +3557,7 @@
     <t>RANIERE VERONICA DE CARVALHO IGNACIO</t>
   </si>
   <si>
-    <t>locawebcommerce-391</t>
+    <t>RaniereVeronicadeCarvalhoIgnácio</t>
   </si>
   <si>
     <t>RANIERE.IGNACIO@YAPAY.COM.BR</t>
@@ -3567,7 +3566,7 @@
     <t>RAONE PABLO PIRES CALEGARI</t>
   </si>
   <si>
-    <t>locawebcommerce-392</t>
+    <t>RaonePabloCalegari</t>
   </si>
   <si>
     <t>RAONE.CALEGARI@YAPAY.COM.BR</t>
@@ -3576,7 +3575,7 @@
     <t>ROBERTO MIURA HONJI</t>
   </si>
   <si>
-    <t>locawebcommerce-393</t>
+    <t>locaweb-14</t>
   </si>
   <si>
     <t>ROBERTO.HONJI@YAPAY.COM.BR</t>
@@ -3585,7 +3584,7 @@
     <t>RONALDO DA COSTA BISPO</t>
   </si>
   <si>
-    <t>locawebcommerce-394</t>
+    <t>RonaldodaCostaBispo</t>
   </si>
   <si>
     <t>RONALDO.BISPO@YAPAY.COM.BR</t>
@@ -3594,7 +3593,7 @@
     <t>SILVANA CRISTINA ROSSI</t>
   </si>
   <si>
-    <t>locawebcommerce-395</t>
+    <t>SilvanaCristinaRossi</t>
   </si>
   <si>
     <t>SILVANA.ROSSI@YAPAY.COM.BR</t>
@@ -3603,7 +3602,7 @@
     <t>SUELLEN DE CASTRO GOMES DA SILVA</t>
   </si>
   <si>
-    <t>locawebcommerce-396</t>
+    <t>SuellendeCastroGomesdaSilva</t>
   </si>
   <si>
     <t>SUELLEN.SILVA@YAPAY.COM.BR</t>
@@ -3612,7 +3611,7 @@
     <t>TANIA APARECIDA DE SOUZA</t>
   </si>
   <si>
-    <t>locawebcommerce-397</t>
+    <t>TaniaSouza</t>
   </si>
   <si>
     <t>TANIA.SOUZA@YAPAY.COM.BR</t>
@@ -3621,7 +3620,7 @@
     <t>TATIANA KAORI ABE</t>
   </si>
   <si>
-    <t>locawebcommerce-398</t>
+    <t>TatianaKaoriAbe</t>
   </si>
   <si>
     <t>TATIANA.ABE@YAPAY.COM.BR</t>
@@ -3630,7 +3629,7 @@
     <t>TATIANA REGINA DE ABREU BOTURI</t>
   </si>
   <si>
-    <t>locawebcommerce-399</t>
+    <t>TatianaReginadeAbreuBoturi</t>
   </si>
   <si>
     <t>TATIANA.BOTURI@YAPAY.COM.BR</t>
@@ -3639,7 +3638,7 @@
     <t>THAMIRES MESSIAS DE OLIVEIRA E SILVA</t>
   </si>
   <si>
-    <t>locawebcommerce-400</t>
+    <t>ThamiresMessiasOliveiraeSilva</t>
   </si>
   <si>
     <t>THAMIRES.SILVA@YAPAY.COM.BR</t>
@@ -3648,7 +3647,7 @@
     <t>VALERIA MARQUES CARLOS</t>
   </si>
   <si>
-    <t>locawebcommerce-401</t>
+    <t>ValériaMarquesCarlos</t>
   </si>
   <si>
     <t>VALERIA.MARQUES@YAPAY.COM.BR</t>
@@ -3657,7 +3656,7 @@
     <t>VANESSA CRISTINA DA SILVA</t>
   </si>
   <si>
-    <t>locawebcommerce-402</t>
+    <t>VanessaCristinadaSilva</t>
   </si>
   <si>
     <t>VANESSA.SILVA@YAPAY.COM.BR</t>
@@ -3666,7 +3665,7 @@
     <t>VICTOR HENRIQUE MAZALI LUCCA</t>
   </si>
   <si>
-    <t>locawebcommerce-403</t>
+    <t>VictorHenriqueMazaliLucca</t>
   </si>
   <si>
     <t>VICTOR.LUCCA@YAPAY.COM.BR</t>
@@ -3675,7 +3674,7 @@
     <t>VICTOR LEONARDO RODRIGUES DE LIMA</t>
   </si>
   <si>
-    <t>locawebcommerce-404</t>
+    <t>VictorLima</t>
   </si>
   <si>
     <t>VICTOR.LEONARDO@YAPAY.COM.BR</t>
@@ -3684,7 +3683,7 @@
     <t>VICTOR RIBEIRO PEREIRA</t>
   </si>
   <si>
-    <t>locawebcommerce-405</t>
+    <t>VictorPereira</t>
   </si>
   <si>
     <t>VICTOR.PEREIRA@YAPAY.COM.BR</t>
@@ -3693,7 +3692,7 @@
     <t>VILMA REGINA CARVALHO RICARDO</t>
   </si>
   <si>
-    <t>locawebcommerce-406</t>
+    <t>VilmaReginaCarvalhoRicardo</t>
   </si>
   <si>
     <t>VILMA.RICARDO@YAPAY.COM.BR</t>
@@ -3702,7 +3701,7 @@
     <t>VITOR HIDEKI YAMAMOTO TIBA</t>
   </si>
   <si>
-    <t>locawebcommerce-407</t>
+    <t>VitorHidekiYamamotoTiba</t>
   </si>
   <si>
     <t>VITOR.YAMAMOTO@YAPAY.COM.BR</t>
@@ -3711,7 +3710,7 @@
     <t>VIVIANE DE ALMEIDA SILVA</t>
   </si>
   <si>
-    <t>locawebcommerce-408</t>
+    <t>VivianedeAlmeidaSilva</t>
   </si>
   <si>
     <t>VIVIANE.ALMEIDA@YAPAY.COM.BR</t>
@@ -3720,7 +3719,7 @@
     <t>WESLEY HENRIQUE SILVA</t>
   </si>
   <si>
-    <t>locawebcommerce-409</t>
+    <t>WesleyHenriqueSilva</t>
   </si>
   <si>
     <t>WESLEY.SILVA@YAPAY.COM.BR</t>
@@ -3729,7 +3728,7 @@
     <t>YURE OLIVEIRA AUGUSTO</t>
   </si>
   <si>
-    <t>locawebcommerce-410</t>
+    <t>YureAugusto</t>
   </si>
   <si>
     <t>YURE.AUGUSTO@YAPAY.COM.BR</t>
@@ -3739,7 +3738,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -3760,9 +3759,8 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
-    <font/>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3785,12 +3783,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor rgb="FFF2F2F2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF3F3F3"/>
-        <bgColor rgb="FFF3F3F3"/>
       </patternFill>
     </fill>
   </fills>
@@ -3830,8 +3822,8 @@
     <xf borderId="1" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -8451,10 +8443,10 @@
         <v>881</v>
       </c>
       <c r="C294" s="5" t="s">
+        <v>881</v>
+      </c>
+      <c r="D294" s="4" t="s">
         <v>882</v>
-      </c>
-      <c r="D294" s="4" t="s">
-        <v>883</v>
       </c>
       <c r="E294" s="4"/>
     </row>
@@ -8463,13 +8455,13 @@
         <v>175</v>
       </c>
       <c r="B295" s="4" t="s">
+        <v>883</v>
+      </c>
+      <c r="C295" s="5" t="s">
         <v>884</v>
       </c>
-      <c r="C295" s="5" t="s">
+      <c r="D295" s="4" t="s">
         <v>885</v>
-      </c>
-      <c r="D295" s="4" t="s">
-        <v>886</v>
       </c>
       <c r="E295" s="4"/>
     </row>
@@ -8478,13 +8470,13 @@
         <v>175</v>
       </c>
       <c r="B296" s="4" t="s">
+        <v>886</v>
+      </c>
+      <c r="C296" s="5" t="s">
         <v>887</v>
       </c>
-      <c r="C296" s="5" t="s">
+      <c r="D296" s="4" t="s">
         <v>888</v>
-      </c>
-      <c r="D296" s="4" t="s">
-        <v>889</v>
       </c>
       <c r="E296" s="4"/>
     </row>
@@ -8493,13 +8485,13 @@
         <v>175</v>
       </c>
       <c r="B297" s="4" t="s">
+        <v>889</v>
+      </c>
+      <c r="C297" s="5" t="s">
         <v>890</v>
       </c>
-      <c r="C297" s="5" t="s">
+      <c r="D297" s="4" t="s">
         <v>891</v>
-      </c>
-      <c r="D297" s="4" t="s">
-        <v>892</v>
       </c>
       <c r="E297" s="4"/>
     </row>
@@ -8508,13 +8500,13 @@
         <v>175</v>
       </c>
       <c r="B298" s="4" t="s">
+        <v>892</v>
+      </c>
+      <c r="C298" s="5" t="s">
         <v>893</v>
       </c>
-      <c r="C298" s="5" t="s">
+      <c r="D298" s="4" t="s">
         <v>894</v>
-      </c>
-      <c r="D298" s="4" t="s">
-        <v>895</v>
       </c>
       <c r="E298" s="4"/>
     </row>
@@ -8523,13 +8515,13 @@
         <v>175</v>
       </c>
       <c r="B299" s="4" t="s">
+        <v>895</v>
+      </c>
+      <c r="C299" s="5" t="s">
         <v>896</v>
       </c>
-      <c r="C299" s="5" t="s">
+      <c r="D299" s="4" t="s">
         <v>897</v>
-      </c>
-      <c r="D299" s="4" t="s">
-        <v>898</v>
       </c>
       <c r="E299" s="4"/>
     </row>
@@ -8538,13 +8530,13 @@
         <v>175</v>
       </c>
       <c r="B300" s="4" t="s">
+        <v>898</v>
+      </c>
+      <c r="C300" s="5" t="s">
         <v>899</v>
       </c>
-      <c r="C300" s="5" t="s">
+      <c r="D300" s="4" t="s">
         <v>900</v>
-      </c>
-      <c r="D300" s="4" t="s">
-        <v>901</v>
       </c>
       <c r="E300" s="4"/>
     </row>
@@ -8553,13 +8545,13 @@
         <v>175</v>
       </c>
       <c r="B301" s="4" t="s">
+        <v>901</v>
+      </c>
+      <c r="C301" s="5" t="s">
         <v>902</v>
       </c>
-      <c r="C301" s="5" t="s">
+      <c r="D301" s="4" t="s">
         <v>903</v>
-      </c>
-      <c r="D301" s="4" t="s">
-        <v>904</v>
       </c>
       <c r="E301" s="4"/>
     </row>
@@ -8568,13 +8560,13 @@
         <v>175</v>
       </c>
       <c r="B302" s="4" t="s">
+        <v>904</v>
+      </c>
+      <c r="C302" s="5" t="s">
         <v>905</v>
       </c>
-      <c r="C302" s="5" t="s">
+      <c r="D302" s="4" t="s">
         <v>906</v>
-      </c>
-      <c r="D302" s="4" t="s">
-        <v>907</v>
       </c>
       <c r="E302" s="4"/>
     </row>
@@ -8583,13 +8575,13 @@
         <v>175</v>
       </c>
       <c r="B303" s="4" t="s">
+        <v>907</v>
+      </c>
+      <c r="C303" s="5" t="s">
         <v>908</v>
       </c>
-      <c r="C303" s="5" t="s">
+      <c r="D303" s="4" t="s">
         <v>909</v>
-      </c>
-      <c r="D303" s="4" t="s">
-        <v>910</v>
       </c>
       <c r="E303" s="4"/>
     </row>
@@ -8598,13 +8590,13 @@
         <v>175</v>
       </c>
       <c r="B304" s="4" t="s">
+        <v>910</v>
+      </c>
+      <c r="C304" s="5" t="s">
         <v>911</v>
       </c>
-      <c r="C304" s="5" t="s">
+      <c r="D304" s="4" t="s">
         <v>912</v>
-      </c>
-      <c r="D304" s="4" t="s">
-        <v>913</v>
       </c>
       <c r="E304" s="4"/>
     </row>
@@ -8613,13 +8605,13 @@
         <v>175</v>
       </c>
       <c r="B305" s="4" t="s">
+        <v>913</v>
+      </c>
+      <c r="C305" s="5" t="s">
         <v>914</v>
       </c>
-      <c r="C305" s="5" t="s">
+      <c r="D305" s="4" t="s">
         <v>915</v>
-      </c>
-      <c r="D305" s="4" t="s">
-        <v>916</v>
       </c>
       <c r="E305" s="4"/>
     </row>
@@ -8628,13 +8620,13 @@
         <v>175</v>
       </c>
       <c r="B306" s="4" t="s">
+        <v>916</v>
+      </c>
+      <c r="C306" s="5" t="s">
         <v>917</v>
       </c>
-      <c r="C306" s="5" t="s">
+      <c r="D306" s="4" t="s">
         <v>918</v>
-      </c>
-      <c r="D306" s="4" t="s">
-        <v>919</v>
       </c>
       <c r="E306" s="4"/>
     </row>
@@ -8643,13 +8635,13 @@
         <v>175</v>
       </c>
       <c r="B307" s="4" t="s">
+        <v>919</v>
+      </c>
+      <c r="C307" s="5" t="s">
         <v>920</v>
       </c>
-      <c r="C307" s="5" t="s">
+      <c r="D307" s="4" t="s">
         <v>921</v>
-      </c>
-      <c r="D307" s="4" t="s">
-        <v>922</v>
       </c>
       <c r="E307" s="4"/>
     </row>
@@ -8658,13 +8650,13 @@
         <v>175</v>
       </c>
       <c r="B308" s="4" t="s">
+        <v>922</v>
+      </c>
+      <c r="C308" s="5" t="s">
         <v>923</v>
       </c>
-      <c r="C308" s="5" t="s">
+      <c r="D308" s="4" t="s">
         <v>924</v>
-      </c>
-      <c r="D308" s="4" t="s">
-        <v>925</v>
       </c>
       <c r="E308" s="4"/>
     </row>
@@ -8673,13 +8665,13 @@
         <v>175</v>
       </c>
       <c r="B309" s="4" t="s">
+        <v>925</v>
+      </c>
+      <c r="C309" s="5" t="s">
         <v>926</v>
       </c>
-      <c r="C309" s="5" t="s">
+      <c r="D309" s="4" t="s">
         <v>927</v>
-      </c>
-      <c r="D309" s="4" t="s">
-        <v>928</v>
       </c>
       <c r="E309" s="4"/>
     </row>
@@ -8688,1543 +8680,1543 @@
         <v>175</v>
       </c>
       <c r="B310" s="4" t="s">
+        <v>928</v>
+      </c>
+      <c r="C310" s="5" t="s">
         <v>929</v>
       </c>
-      <c r="C310" s="5" t="s">
+      <c r="D310" s="4" t="s">
         <v>930</v>
-      </c>
-      <c r="D310" s="4" t="s">
-        <v>931</v>
       </c>
       <c r="E310" s="4"/>
     </row>
     <row r="311" ht="15.75" customHeight="1">
       <c r="A311" s="4" t="s">
+        <v>931</v>
+      </c>
+      <c r="B311" s="4" t="s">
         <v>932</v>
       </c>
-      <c r="B311" s="4" t="s">
+      <c r="C311" s="5" t="s">
         <v>933</v>
       </c>
-      <c r="C311" s="5" t="s">
+      <c r="D311" s="4" t="s">
         <v>934</v>
-      </c>
-      <c r="D311" s="4" t="s">
-        <v>935</v>
       </c>
       <c r="E311" s="4"/>
     </row>
     <row r="312" ht="15.75" customHeight="1">
       <c r="A312" s="4" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B312" s="4" t="s">
+        <v>935</v>
+      </c>
+      <c r="C312" s="5" t="s">
         <v>936</v>
       </c>
-      <c r="C312" s="5" t="s">
+      <c r="D312" s="4" t="s">
         <v>937</v>
-      </c>
-      <c r="D312" s="4" t="s">
-        <v>938</v>
       </c>
       <c r="E312" s="4"/>
     </row>
     <row r="313" ht="15.75" customHeight="1">
       <c r="A313" s="4" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B313" s="4" t="s">
+        <v>938</v>
+      </c>
+      <c r="C313" s="5" t="s">
         <v>939</v>
       </c>
-      <c r="C313" s="5" t="s">
+      <c r="D313" s="4" t="s">
         <v>940</v>
-      </c>
-      <c r="D313" s="4" t="s">
-        <v>941</v>
       </c>
       <c r="E313" s="4"/>
     </row>
     <row r="314" ht="15.75" customHeight="1">
       <c r="A314" s="4" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B314" s="4" t="s">
+        <v>941</v>
+      </c>
+      <c r="C314" s="5" t="s">
         <v>942</v>
       </c>
-      <c r="C314" s="5" t="s">
+      <c r="D314" s="4" t="s">
         <v>943</v>
-      </c>
-      <c r="D314" s="4" t="s">
-        <v>944</v>
       </c>
       <c r="E314" s="4"/>
     </row>
     <row r="315" ht="15.75" customHeight="1">
       <c r="A315" s="4" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B315" s="4" t="s">
+        <v>944</v>
+      </c>
+      <c r="C315" s="5" t="s">
         <v>945</v>
       </c>
-      <c r="C315" s="5" t="s">
+      <c r="D315" s="4" t="s">
         <v>946</v>
-      </c>
-      <c r="D315" s="4" t="s">
-        <v>947</v>
       </c>
       <c r="E315" s="4"/>
     </row>
     <row r="316" ht="15.75" customHeight="1">
       <c r="A316" s="4" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B316" s="4" t="s">
+        <v>947</v>
+      </c>
+      <c r="C316" s="5" t="s">
         <v>948</v>
       </c>
-      <c r="C316" s="5" t="s">
+      <c r="D316" s="4" t="s">
         <v>949</v>
-      </c>
-      <c r="D316" s="4" t="s">
-        <v>950</v>
       </c>
       <c r="E316" s="4"/>
     </row>
     <row r="317" ht="15.75" customHeight="1">
       <c r="A317" s="4" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B317" s="4" t="s">
+        <v>950</v>
+      </c>
+      <c r="C317" s="5" t="s">
         <v>951</v>
       </c>
-      <c r="C317" s="5" t="s">
+      <c r="D317" s="4" t="s">
         <v>952</v>
-      </c>
-      <c r="D317" s="4" t="s">
-        <v>953</v>
       </c>
       <c r="E317" s="4"/>
     </row>
     <row r="318" ht="15.75" customHeight="1">
       <c r="A318" s="4" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B318" s="4" t="s">
+        <v>953</v>
+      </c>
+      <c r="C318" s="5" t="s">
         <v>954</v>
       </c>
-      <c r="C318" s="5" t="s">
+      <c r="D318" s="4" t="s">
         <v>955</v>
-      </c>
-      <c r="D318" s="4" t="s">
-        <v>956</v>
       </c>
       <c r="E318" s="4"/>
     </row>
     <row r="319" ht="15.75" customHeight="1">
       <c r="A319" s="4" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B319" s="4" t="s">
+        <v>956</v>
+      </c>
+      <c r="C319" s="5" t="s">
         <v>957</v>
       </c>
-      <c r="C319" s="5" t="s">
+      <c r="D319" s="4" t="s">
         <v>958</v>
-      </c>
-      <c r="D319" s="4" t="s">
-        <v>959</v>
       </c>
       <c r="E319" s="4"/>
     </row>
     <row r="320" ht="15.75" customHeight="1">
       <c r="A320" s="4" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B320" s="4" t="s">
+        <v>959</v>
+      </c>
+      <c r="C320" s="5" t="s">
         <v>960</v>
       </c>
-      <c r="C320" s="5" t="s">
+      <c r="D320" s="4" t="s">
         <v>961</v>
-      </c>
-      <c r="D320" s="4" t="s">
-        <v>962</v>
       </c>
       <c r="E320" s="4"/>
     </row>
     <row r="321" ht="15.75" customHeight="1">
       <c r="A321" s="4" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B321" s="4" t="s">
+        <v>962</v>
+      </c>
+      <c r="C321" s="5" t="s">
         <v>963</v>
       </c>
-      <c r="C321" s="5" t="s">
+      <c r="D321" s="4" t="s">
         <v>964</v>
-      </c>
-      <c r="D321" s="4" t="s">
-        <v>965</v>
       </c>
       <c r="E321" s="4"/>
     </row>
     <row r="322" ht="15.75" customHeight="1">
       <c r="A322" s="4" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B322" s="4" t="s">
+        <v>965</v>
+      </c>
+      <c r="C322" s="5" t="s">
         <v>966</v>
       </c>
-      <c r="C322" s="5" t="s">
+      <c r="D322" s="4" t="s">
         <v>967</v>
-      </c>
-      <c r="D322" s="4" t="s">
-        <v>968</v>
       </c>
       <c r="E322" s="4"/>
     </row>
     <row r="323" ht="15.75" customHeight="1">
       <c r="A323" s="4" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B323" s="4" t="s">
+        <v>968</v>
+      </c>
+      <c r="C323" s="5" t="s">
         <v>969</v>
       </c>
-      <c r="C323" s="5" t="s">
+      <c r="D323" s="4" t="s">
         <v>970</v>
-      </c>
-      <c r="D323" s="4" t="s">
-        <v>971</v>
       </c>
       <c r="E323" s="4"/>
     </row>
     <row r="324" ht="15.75" customHeight="1">
       <c r="A324" s="4" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B324" s="4" t="s">
+        <v>971</v>
+      </c>
+      <c r="C324" s="5" t="s">
         <v>972</v>
       </c>
-      <c r="C324" s="5" t="s">
+      <c r="D324" s="4" t="s">
         <v>973</v>
-      </c>
-      <c r="D324" s="4" t="s">
-        <v>974</v>
       </c>
       <c r="E324" s="4"/>
     </row>
     <row r="325" ht="15.75" customHeight="1">
       <c r="A325" s="4" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B325" s="4" t="s">
+        <v>974</v>
+      </c>
+      <c r="C325" s="5" t="s">
         <v>975</v>
       </c>
-      <c r="C325" s="5" t="s">
+      <c r="D325" s="4" t="s">
         <v>976</v>
-      </c>
-      <c r="D325" s="4" t="s">
-        <v>977</v>
       </c>
       <c r="E325" s="4"/>
     </row>
     <row r="326" ht="15.75" customHeight="1">
       <c r="A326" s="4" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B326" s="4" t="s">
+        <v>977</v>
+      </c>
+      <c r="C326" s="5" t="s">
         <v>978</v>
       </c>
-      <c r="C326" s="5" t="s">
+      <c r="D326" s="4" t="s">
         <v>979</v>
-      </c>
-      <c r="D326" s="4" t="s">
-        <v>980</v>
       </c>
       <c r="E326" s="4"/>
     </row>
     <row r="327" ht="15.75" customHeight="1">
       <c r="A327" s="4" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B327" s="4" t="s">
+        <v>980</v>
+      </c>
+      <c r="C327" s="5" t="s">
         <v>981</v>
       </c>
-      <c r="C327" s="5" t="s">
+      <c r="D327" s="4" t="s">
         <v>982</v>
-      </c>
-      <c r="D327" s="4" t="s">
-        <v>983</v>
       </c>
       <c r="E327" s="4"/>
     </row>
     <row r="328" ht="15.75" customHeight="1">
       <c r="A328" s="4" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B328" s="4" t="s">
+        <v>983</v>
+      </c>
+      <c r="C328" s="5" t="s">
         <v>984</v>
       </c>
-      <c r="C328" s="5" t="s">
+      <c r="D328" s="4" t="s">
         <v>985</v>
-      </c>
-      <c r="D328" s="4" t="s">
-        <v>986</v>
       </c>
       <c r="E328" s="4"/>
     </row>
     <row r="329" ht="15.75" customHeight="1">
       <c r="A329" s="4" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B329" s="4" t="s">
+        <v>986</v>
+      </c>
+      <c r="C329" s="5" t="s">
         <v>987</v>
       </c>
-      <c r="C329" s="5" t="s">
+      <c r="D329" s="4" t="s">
         <v>988</v>
-      </c>
-      <c r="D329" s="4" t="s">
-        <v>989</v>
       </c>
       <c r="E329" s="4"/>
     </row>
     <row r="330" ht="15.75" customHeight="1">
       <c r="A330" s="4" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B330" s="4" t="s">
+        <v>989</v>
+      </c>
+      <c r="C330" s="5" t="s">
         <v>990</v>
       </c>
-      <c r="C330" s="5" t="s">
+      <c r="D330" s="4" t="s">
         <v>991</v>
-      </c>
-      <c r="D330" s="4" t="s">
-        <v>992</v>
       </c>
       <c r="E330" s="4"/>
     </row>
     <row r="331" ht="15.75" customHeight="1">
       <c r="A331" s="4" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B331" s="4" t="s">
+        <v>992</v>
+      </c>
+      <c r="C331" s="5" t="s">
         <v>993</v>
       </c>
-      <c r="C331" s="5" t="s">
+      <c r="D331" s="4" t="s">
         <v>994</v>
-      </c>
-      <c r="D331" s="4" t="s">
-        <v>995</v>
       </c>
       <c r="E331" s="4"/>
     </row>
     <row r="332" ht="15.75" customHeight="1">
       <c r="A332" s="4" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B332" s="4" t="s">
+        <v>995</v>
+      </c>
+      <c r="C332" s="5" t="s">
         <v>996</v>
       </c>
-      <c r="C332" s="5" t="s">
+      <c r="D332" s="4" t="s">
         <v>997</v>
-      </c>
-      <c r="D332" s="4" t="s">
-        <v>998</v>
       </c>
       <c r="E332" s="4"/>
     </row>
     <row r="333" ht="15.75" customHeight="1">
       <c r="A333" s="4" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B333" s="4" t="s">
+        <v>998</v>
+      </c>
+      <c r="C333" s="5" t="s">
         <v>999</v>
       </c>
-      <c r="C333" s="5" t="s">
+      <c r="D333" s="4" t="s">
         <v>1000</v>
-      </c>
-      <c r="D333" s="4" t="s">
-        <v>1001</v>
       </c>
       <c r="E333" s="4"/>
     </row>
     <row r="334" ht="15.75" customHeight="1">
       <c r="A334" s="4" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B334" s="4" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C334" s="5" t="s">
         <v>1002</v>
       </c>
-      <c r="C334" s="5" t="s">
+      <c r="D334" s="4" t="s">
         <v>1003</v>
-      </c>
-      <c r="D334" s="4" t="s">
-        <v>1004</v>
       </c>
       <c r="E334" s="4"/>
     </row>
     <row r="335" ht="15.75" customHeight="1">
       <c r="A335" s="4" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B335" s="4" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C335" s="5" t="s">
         <v>1005</v>
       </c>
-      <c r="C335" s="5" t="s">
+      <c r="D335" s="4" t="s">
         <v>1006</v>
-      </c>
-      <c r="D335" s="4" t="s">
-        <v>1007</v>
       </c>
       <c r="E335" s="4"/>
     </row>
     <row r="336" ht="15.75" customHeight="1">
       <c r="A336" s="4" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B336" s="4" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C336" s="5" t="s">
         <v>1008</v>
       </c>
-      <c r="C336" s="5" t="s">
+      <c r="D336" s="4" t="s">
         <v>1009</v>
-      </c>
-      <c r="D336" s="4" t="s">
-        <v>1010</v>
       </c>
       <c r="E336" s="4"/>
     </row>
     <row r="337" ht="15.75" customHeight="1">
       <c r="A337" s="4" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B337" s="4" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C337" s="5" t="s">
         <v>1011</v>
       </c>
-      <c r="C337" s="5" t="s">
+      <c r="D337" s="4" t="s">
         <v>1012</v>
-      </c>
-      <c r="D337" s="4" t="s">
-        <v>1013</v>
       </c>
       <c r="E337" s="4"/>
     </row>
     <row r="338" ht="15.75" customHeight="1">
       <c r="A338" s="4" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B338" s="4" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C338" s="5" t="s">
         <v>1014</v>
       </c>
-      <c r="C338" s="5" t="s">
+      <c r="D338" s="4" t="s">
         <v>1015</v>
-      </c>
-      <c r="D338" s="4" t="s">
-        <v>1016</v>
       </c>
       <c r="E338" s="4"/>
     </row>
     <row r="339" ht="15.75" customHeight="1">
       <c r="A339" s="4" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B339" s="4" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C339" s="5" t="s">
         <v>1017</v>
       </c>
-      <c r="C339" s="5" t="s">
+      <c r="D339" s="4" t="s">
         <v>1018</v>
-      </c>
-      <c r="D339" s="4" t="s">
-        <v>1019</v>
       </c>
       <c r="E339" s="4"/>
     </row>
     <row r="340" ht="15.75" customHeight="1">
       <c r="A340" s="4" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B340" s="4" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C340" s="5" t="s">
         <v>1020</v>
       </c>
-      <c r="C340" s="5" t="s">
+      <c r="D340" s="4" t="s">
         <v>1021</v>
-      </c>
-      <c r="D340" s="4" t="s">
-        <v>1022</v>
       </c>
       <c r="E340" s="4"/>
     </row>
     <row r="341" ht="15.75" customHeight="1">
       <c r="A341" s="4" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B341" s="4" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C341" s="5" t="s">
         <v>1023</v>
       </c>
-      <c r="C341" s="5" t="s">
+      <c r="D341" s="4" t="s">
         <v>1024</v>
-      </c>
-      <c r="D341" s="4" t="s">
-        <v>1025</v>
       </c>
       <c r="E341" s="4"/>
     </row>
     <row r="342" ht="15.75" customHeight="1">
       <c r="A342" s="4" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B342" s="4" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C342" s="5" t="s">
         <v>1026</v>
       </c>
-      <c r="C342" s="5" t="s">
+      <c r="D342" s="4" t="s">
         <v>1027</v>
-      </c>
-      <c r="D342" s="4" t="s">
-        <v>1028</v>
       </c>
       <c r="E342" s="4"/>
     </row>
     <row r="343" ht="15.75" customHeight="1">
       <c r="A343" s="4" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B343" s="4" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C343" s="5" t="s">
         <v>1029</v>
       </c>
-      <c r="C343" s="5" t="s">
+      <c r="D343" s="4" t="s">
         <v>1030</v>
-      </c>
-      <c r="D343" s="4" t="s">
-        <v>1031</v>
       </c>
       <c r="E343" s="4"/>
     </row>
     <row r="344" ht="15.75" customHeight="1">
       <c r="A344" s="4" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B344" s="4" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C344" s="5" t="s">
         <v>1032</v>
       </c>
-      <c r="C344" s="5" t="s">
+      <c r="D344" s="4" t="s">
         <v>1033</v>
-      </c>
-      <c r="D344" s="4" t="s">
-        <v>1034</v>
       </c>
       <c r="E344" s="4"/>
     </row>
     <row r="345" ht="15.75" customHeight="1">
       <c r="A345" s="4" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B345" s="4" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C345" s="5" t="s">
         <v>1035</v>
       </c>
-      <c r="C345" s="5" t="s">
+      <c r="D345" s="4" t="s">
         <v>1036</v>
-      </c>
-      <c r="D345" s="4" t="s">
-        <v>1037</v>
       </c>
       <c r="E345" s="4"/>
     </row>
     <row r="346" ht="15.75" customHeight="1">
       <c r="A346" s="4" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B346" s="4" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C346" s="5" t="s">
         <v>1038</v>
       </c>
-      <c r="C346" s="5" t="s">
+      <c r="D346" s="4" t="s">
         <v>1039</v>
-      </c>
-      <c r="D346" s="4" t="s">
-        <v>1040</v>
       </c>
       <c r="E346" s="4"/>
     </row>
     <row r="347" ht="15.75" customHeight="1">
       <c r="A347" s="4" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B347" s="4" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C347" s="5" t="s">
         <v>1041</v>
       </c>
-      <c r="C347" s="5" t="s">
+      <c r="D347" s="4" t="s">
         <v>1042</v>
-      </c>
-      <c r="D347" s="4" t="s">
-        <v>1043</v>
       </c>
       <c r="E347" s="4"/>
     </row>
     <row r="348" ht="15.75" customHeight="1">
       <c r="A348" s="4" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B348" s="4" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C348" s="5" t="s">
         <v>1044</v>
       </c>
-      <c r="C348" s="5" t="s">
+      <c r="D348" s="4" t="s">
         <v>1045</v>
-      </c>
-      <c r="D348" s="4" t="s">
-        <v>1046</v>
       </c>
       <c r="E348" s="4"/>
     </row>
     <row r="349" ht="15.75" customHeight="1">
       <c r="A349" s="4" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B349" s="4" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C349" s="5" t="s">
         <v>1047</v>
       </c>
-      <c r="C349" s="5" t="s">
+      <c r="D349" s="4" t="s">
         <v>1048</v>
-      </c>
-      <c r="D349" s="4" t="s">
-        <v>1049</v>
       </c>
       <c r="E349" s="4"/>
     </row>
     <row r="350" ht="15.75" customHeight="1">
       <c r="A350" s="4" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B350" s="4" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C350" s="5" t="s">
         <v>1050</v>
       </c>
-      <c r="C350" s="5" t="s">
+      <c r="D350" s="4" t="s">
         <v>1051</v>
-      </c>
-      <c r="D350" s="4" t="s">
-        <v>1052</v>
       </c>
       <c r="E350" s="4"/>
     </row>
     <row r="351" ht="15.75" customHeight="1">
       <c r="A351" s="4" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B351" s="4" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C351" s="5" t="s">
         <v>1053</v>
       </c>
-      <c r="C351" s="5" t="s">
+      <c r="D351" s="4" t="s">
         <v>1054</v>
-      </c>
-      <c r="D351" s="4" t="s">
-        <v>1055</v>
       </c>
       <c r="E351" s="4"/>
     </row>
     <row r="352" ht="15.75" customHeight="1">
       <c r="A352" s="4" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B352" s="4" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C352" s="5" t="s">
         <v>1056</v>
       </c>
-      <c r="C352" s="5" t="s">
+      <c r="D352" s="4" t="s">
         <v>1057</v>
-      </c>
-      <c r="D352" s="4" t="s">
-        <v>1058</v>
       </c>
       <c r="E352" s="4"/>
     </row>
     <row r="353" ht="15.75" customHeight="1">
       <c r="A353" s="4" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B353" s="4" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C353" s="5" t="s">
         <v>1059</v>
       </c>
-      <c r="C353" s="5" t="s">
+      <c r="D353" s="4" t="s">
         <v>1060</v>
-      </c>
-      <c r="D353" s="4" t="s">
-        <v>1061</v>
       </c>
       <c r="E353" s="4"/>
     </row>
     <row r="354" ht="15.75" customHeight="1">
       <c r="A354" s="4" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B354" s="4" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C354" s="5" t="s">
         <v>1062</v>
       </c>
-      <c r="C354" s="5" t="s">
+      <c r="D354" s="4" t="s">
         <v>1063</v>
-      </c>
-      <c r="D354" s="4" t="s">
-        <v>1064</v>
       </c>
       <c r="E354" s="4"/>
     </row>
     <row r="355" ht="15.75" customHeight="1">
       <c r="A355" s="4" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B355" s="4" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C355" s="5" t="s">
         <v>1065</v>
       </c>
-      <c r="C355" s="5" t="s">
+      <c r="D355" s="4" t="s">
         <v>1066</v>
-      </c>
-      <c r="D355" s="4" t="s">
-        <v>1067</v>
       </c>
       <c r="E355" s="4"/>
     </row>
     <row r="356" ht="15.75" customHeight="1">
       <c r="A356" s="4" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B356" s="4" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C356" s="5" t="s">
         <v>1068</v>
       </c>
-      <c r="C356" s="5" t="s">
+      <c r="D356" s="4" t="s">
         <v>1069</v>
-      </c>
-      <c r="D356" s="4" t="s">
-        <v>1070</v>
       </c>
       <c r="E356" s="4"/>
     </row>
     <row r="357" ht="15.75" customHeight="1">
       <c r="A357" s="4" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B357" s="4" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C357" s="5" t="s">
         <v>1071</v>
       </c>
-      <c r="C357" s="5" t="s">
+      <c r="D357" s="4" t="s">
         <v>1072</v>
-      </c>
-      <c r="D357" s="4" t="s">
-        <v>1073</v>
       </c>
       <c r="E357" s="4"/>
     </row>
     <row r="358" ht="15.75" customHeight="1">
       <c r="A358" s="4" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B358" s="4" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C358" s="5" t="s">
         <v>1074</v>
       </c>
-      <c r="C358" s="5" t="s">
+      <c r="D358" s="4" t="s">
         <v>1075</v>
-      </c>
-      <c r="D358" s="4" t="s">
-        <v>1076</v>
       </c>
       <c r="E358" s="4"/>
     </row>
     <row r="359" ht="15.75" customHeight="1">
       <c r="A359" s="4" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B359" s="4" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C359" s="5" t="s">
         <v>1077</v>
       </c>
-      <c r="C359" s="5" t="s">
+      <c r="D359" s="4" t="s">
         <v>1078</v>
-      </c>
-      <c r="D359" s="4" t="s">
-        <v>1079</v>
       </c>
       <c r="E359" s="4"/>
     </row>
     <row r="360" ht="15.75" customHeight="1">
       <c r="A360" s="4" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B360" s="4" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C360" s="5" t="s">
         <v>1080</v>
       </c>
-      <c r="C360" s="5" t="s">
+      <c r="D360" s="4" t="s">
         <v>1081</v>
-      </c>
-      <c r="D360" s="4" t="s">
-        <v>1082</v>
       </c>
       <c r="E360" s="4"/>
     </row>
     <row r="361" ht="15.75" customHeight="1">
       <c r="A361" s="4" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B361" s="4" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C361" s="5" t="s">
         <v>1083</v>
       </c>
-      <c r="C361" s="5" t="s">
+      <c r="D361" s="4" t="s">
         <v>1084</v>
-      </c>
-      <c r="D361" s="4" t="s">
-        <v>1085</v>
       </c>
       <c r="E361" s="4"/>
     </row>
     <row r="362" ht="15.75" customHeight="1">
       <c r="A362" s="4" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B362" s="4" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C362" s="5" t="s">
         <v>1086</v>
       </c>
-      <c r="C362" s="5" t="s">
+      <c r="D362" s="4" t="s">
         <v>1087</v>
-      </c>
-      <c r="D362" s="4" t="s">
-        <v>1088</v>
       </c>
       <c r="E362" s="4"/>
     </row>
     <row r="363" ht="15.75" customHeight="1">
       <c r="A363" s="4" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B363" s="4" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C363" s="5" t="s">
         <v>1089</v>
       </c>
-      <c r="C363" s="5" t="s">
+      <c r="D363" s="4" t="s">
         <v>1090</v>
-      </c>
-      <c r="D363" s="4" t="s">
-        <v>1091</v>
       </c>
       <c r="E363" s="4"/>
     </row>
     <row r="364" ht="15.75" customHeight="1">
       <c r="A364" s="4" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B364" s="4" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C364" s="5" t="s">
         <v>1092</v>
       </c>
-      <c r="C364" s="5" t="s">
+      <c r="D364" s="4" t="s">
         <v>1093</v>
-      </c>
-      <c r="D364" s="4" t="s">
-        <v>1094</v>
       </c>
       <c r="E364" s="4"/>
     </row>
     <row r="365" ht="15.75" customHeight="1">
       <c r="A365" s="4" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B365" s="4" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C365" s="5" t="s">
         <v>1095</v>
       </c>
-      <c r="C365" s="5" t="s">
+      <c r="D365" s="4" t="s">
         <v>1096</v>
-      </c>
-      <c r="D365" s="4" t="s">
-        <v>1097</v>
       </c>
       <c r="E365" s="4"/>
     </row>
     <row r="366" ht="15.75" customHeight="1">
       <c r="A366" s="4" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B366" s="4" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C366" s="5" t="s">
         <v>1098</v>
       </c>
-      <c r="C366" s="5" t="s">
+      <c r="D366" s="4" t="s">
         <v>1099</v>
-      </c>
-      <c r="D366" s="4" t="s">
-        <v>1100</v>
       </c>
       <c r="E366" s="4"/>
     </row>
     <row r="367" ht="15.75" customHeight="1">
       <c r="A367" s="4" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B367" s="4" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C367" s="5" t="s">
         <v>1101</v>
       </c>
-      <c r="C367" s="5" t="s">
+      <c r="D367" s="4" t="s">
         <v>1102</v>
-      </c>
-      <c r="D367" s="4" t="s">
-        <v>1103</v>
       </c>
       <c r="E367" s="4"/>
     </row>
     <row r="368" ht="15.75" customHeight="1">
       <c r="A368" s="4" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B368" s="4" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C368" s="5" t="s">
         <v>1104</v>
       </c>
-      <c r="C368" s="5" t="s">
+      <c r="D368" s="4" t="s">
         <v>1105</v>
-      </c>
-      <c r="D368" s="4" t="s">
-        <v>1106</v>
       </c>
       <c r="E368" s="4"/>
     </row>
     <row r="369" ht="15.75" customHeight="1">
       <c r="A369" s="4" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B369" s="4" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C369" s="5" t="s">
         <v>1107</v>
       </c>
-      <c r="C369" s="5" t="s">
+      <c r="D369" s="4" t="s">
         <v>1108</v>
-      </c>
-      <c r="D369" s="4" t="s">
-        <v>1109</v>
       </c>
       <c r="E369" s="4"/>
     </row>
     <row r="370" ht="15.75" customHeight="1">
       <c r="A370" s="4" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B370" s="4" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C370" s="5" t="s">
         <v>1110</v>
       </c>
-      <c r="C370" s="5" t="s">
+      <c r="D370" s="4" t="s">
         <v>1111</v>
-      </c>
-      <c r="D370" s="4" t="s">
-        <v>1112</v>
       </c>
       <c r="E370" s="4"/>
     </row>
     <row r="371" ht="15.75" customHeight="1">
       <c r="A371" s="4" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B371" s="4" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C371" s="5" t="s">
         <v>1113</v>
       </c>
-      <c r="C371" s="5" t="s">
+      <c r="D371" s="4" t="s">
         <v>1114</v>
-      </c>
-      <c r="D371" s="4" t="s">
-        <v>1115</v>
       </c>
       <c r="E371" s="4"/>
     </row>
     <row r="372" ht="15.75" customHeight="1">
       <c r="A372" s="4" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B372" s="4" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C372" s="5" t="s">
         <v>1116</v>
       </c>
-      <c r="C372" s="5" t="s">
+      <c r="D372" s="4" t="s">
         <v>1117</v>
-      </c>
-      <c r="D372" s="4" t="s">
-        <v>1118</v>
       </c>
       <c r="E372" s="4"/>
     </row>
     <row r="373" ht="15.75" customHeight="1">
       <c r="A373" s="4" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B373" s="4" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C373" s="5" t="s">
         <v>1119</v>
       </c>
-      <c r="C373" s="5" t="s">
+      <c r="D373" s="4" t="s">
         <v>1120</v>
-      </c>
-      <c r="D373" s="4" t="s">
-        <v>1121</v>
       </c>
       <c r="E373" s="4"/>
     </row>
     <row r="374" ht="15.75" customHeight="1">
       <c r="A374" s="4" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B374" s="4" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C374" s="5" t="s">
         <v>1122</v>
       </c>
-      <c r="C374" s="5" t="s">
+      <c r="D374" s="4" t="s">
         <v>1123</v>
-      </c>
-      <c r="D374" s="4" t="s">
-        <v>1124</v>
       </c>
       <c r="E374" s="4"/>
     </row>
     <row r="375" ht="15.75" customHeight="1">
       <c r="A375" s="4" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B375" s="4" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C375" s="5" t="s">
         <v>1125</v>
       </c>
-      <c r="C375" s="5" t="s">
+      <c r="D375" s="4" t="s">
         <v>1126</v>
-      </c>
-      <c r="D375" s="4" t="s">
-        <v>1127</v>
       </c>
       <c r="E375" s="4"/>
     </row>
     <row r="376" ht="15.75" customHeight="1">
       <c r="A376" s="4" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B376" s="4" t="s">
+        <v>1127</v>
+      </c>
+      <c r="C376" s="5" t="s">
         <v>1128</v>
       </c>
-      <c r="C376" s="5" t="s">
+      <c r="D376" s="4" t="s">
         <v>1129</v>
-      </c>
-      <c r="D376" s="4" t="s">
-        <v>1130</v>
       </c>
       <c r="E376" s="4"/>
     </row>
     <row r="377" ht="15.75" customHeight="1">
       <c r="A377" s="4" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B377" s="4" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C377" s="5" t="s">
         <v>1131</v>
       </c>
-      <c r="C377" s="5" t="s">
+      <c r="D377" s="4" t="s">
         <v>1132</v>
-      </c>
-      <c r="D377" s="4" t="s">
-        <v>1133</v>
       </c>
       <c r="E377" s="4"/>
     </row>
     <row r="378" ht="15.75" customHeight="1">
       <c r="A378" s="4" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B378" s="4" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C378" s="5" t="s">
         <v>1134</v>
       </c>
-      <c r="C378" s="5" t="s">
+      <c r="D378" s="4" t="s">
         <v>1135</v>
-      </c>
-      <c r="D378" s="4" t="s">
-        <v>1136</v>
       </c>
       <c r="E378" s="4"/>
     </row>
     <row r="379" ht="15.75" customHeight="1">
       <c r="A379" s="4" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B379" s="4" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C379" s="5" t="s">
         <v>1137</v>
       </c>
-      <c r="C379" s="5" t="s">
+      <c r="D379" s="4" t="s">
         <v>1138</v>
-      </c>
-      <c r="D379" s="4" t="s">
-        <v>1139</v>
       </c>
       <c r="E379" s="4"/>
     </row>
     <row r="380" ht="15.75" customHeight="1">
       <c r="A380" s="4" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B380" s="4" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C380" s="5" t="s">
         <v>1140</v>
       </c>
-      <c r="C380" s="5" t="s">
+      <c r="D380" s="4" t="s">
         <v>1141</v>
-      </c>
-      <c r="D380" s="4" t="s">
-        <v>1142</v>
       </c>
       <c r="E380" s="4"/>
     </row>
     <row r="381" ht="15.75" customHeight="1">
       <c r="A381" s="4" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B381" s="4" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C381" s="5" t="s">
         <v>1143</v>
       </c>
-      <c r="C381" s="5" t="s">
+      <c r="D381" s="4" t="s">
         <v>1144</v>
-      </c>
-      <c r="D381" s="4" t="s">
-        <v>1145</v>
       </c>
       <c r="E381" s="4"/>
     </row>
     <row r="382" ht="15.75" customHeight="1">
       <c r="A382" s="4" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B382" s="4" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C382" s="5" t="s">
         <v>1146</v>
       </c>
-      <c r="C382" s="5" t="s">
+      <c r="D382" s="4" t="s">
         <v>1147</v>
-      </c>
-      <c r="D382" s="4" t="s">
-        <v>1148</v>
       </c>
       <c r="E382" s="4"/>
     </row>
     <row r="383" ht="15.75" customHeight="1">
       <c r="A383" s="4" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B383" s="4" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C383" s="5" t="s">
         <v>1149</v>
       </c>
-      <c r="C383" s="5" t="s">
+      <c r="D383" s="4" t="s">
         <v>1150</v>
-      </c>
-      <c r="D383" s="4" t="s">
-        <v>1151</v>
       </c>
       <c r="E383" s="4"/>
     </row>
     <row r="384" ht="15.75" customHeight="1">
       <c r="A384" s="4" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B384" s="4" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C384" s="5" t="s">
         <v>1152</v>
       </c>
-      <c r="C384" s="5" t="s">
+      <c r="D384" s="4" t="s">
         <v>1153</v>
-      </c>
-      <c r="D384" s="4" t="s">
-        <v>1154</v>
       </c>
       <c r="E384" s="4"/>
     </row>
     <row r="385" ht="15.75" customHeight="1">
       <c r="A385" s="4" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B385" s="4" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C385" s="5" t="s">
         <v>1155</v>
       </c>
-      <c r="C385" s="5" t="s">
+      <c r="D385" s="4" t="s">
         <v>1156</v>
-      </c>
-      <c r="D385" s="4" t="s">
-        <v>1157</v>
       </c>
       <c r="E385" s="4"/>
     </row>
     <row r="386" ht="15.75" customHeight="1">
       <c r="A386" s="4" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B386" s="4" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C386" s="5" t="s">
         <v>1158</v>
       </c>
-      <c r="C386" s="5" t="s">
+      <c r="D386" s="4" t="s">
         <v>1159</v>
-      </c>
-      <c r="D386" s="4" t="s">
-        <v>1160</v>
       </c>
       <c r="E386" s="4"/>
     </row>
     <row r="387" ht="15.75" customHeight="1">
       <c r="A387" s="4" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B387" s="4" t="s">
+        <v>1160</v>
+      </c>
+      <c r="C387" s="5" t="s">
         <v>1161</v>
       </c>
-      <c r="C387" s="5" t="s">
+      <c r="D387" s="4" t="s">
         <v>1162</v>
-      </c>
-      <c r="D387" s="4" t="s">
-        <v>1163</v>
       </c>
       <c r="E387" s="4"/>
     </row>
     <row r="388" ht="15.75" customHeight="1">
       <c r="A388" s="4" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B388" s="4" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C388" s="5" t="s">
         <v>1164</v>
       </c>
-      <c r="C388" s="5" t="s">
+      <c r="D388" s="4" t="s">
         <v>1165</v>
-      </c>
-      <c r="D388" s="4" t="s">
-        <v>1166</v>
       </c>
       <c r="E388" s="4"/>
     </row>
     <row r="389" ht="15.75" customHeight="1">
       <c r="A389" s="4" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B389" s="4" t="s">
+        <v>1166</v>
+      </c>
+      <c r="C389" s="5" t="s">
         <v>1167</v>
       </c>
-      <c r="C389" s="5" t="s">
+      <c r="D389" s="4" t="s">
         <v>1168</v>
-      </c>
-      <c r="D389" s="4" t="s">
-        <v>1169</v>
       </c>
       <c r="E389" s="4"/>
     </row>
     <row r="390" ht="15.75" customHeight="1">
       <c r="A390" s="4" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B390" s="4" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C390" s="5" t="s">
         <v>1170</v>
       </c>
-      <c r="C390" s="5" t="s">
+      <c r="D390" s="4" t="s">
         <v>1171</v>
-      </c>
-      <c r="D390" s="4" t="s">
-        <v>1172</v>
       </c>
       <c r="E390" s="4"/>
     </row>
     <row r="391" ht="15.75" customHeight="1">
       <c r="A391" s="4" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B391" s="4" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C391" s="5" t="s">
         <v>1173</v>
       </c>
-      <c r="C391" s="5" t="s">
+      <c r="D391" s="4" t="s">
         <v>1174</v>
-      </c>
-      <c r="D391" s="4" t="s">
-        <v>1175</v>
       </c>
       <c r="E391" s="4"/>
     </row>
     <row r="392" ht="15.75" customHeight="1">
       <c r="A392" s="4" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B392" s="4" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C392" s="5" t="s">
         <v>1176</v>
       </c>
-      <c r="C392" s="5" t="s">
+      <c r="D392" s="4" t="s">
         <v>1177</v>
-      </c>
-      <c r="D392" s="4" t="s">
-        <v>1178</v>
       </c>
       <c r="E392" s="4"/>
     </row>
     <row r="393" ht="15.75" customHeight="1">
       <c r="A393" s="4" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B393" s="4" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C393" s="5" t="s">
         <v>1179</v>
       </c>
-      <c r="C393" s="5" t="s">
+      <c r="D393" s="4" t="s">
         <v>1180</v>
-      </c>
-      <c r="D393" s="4" t="s">
-        <v>1181</v>
       </c>
       <c r="E393" s="4"/>
     </row>
     <row r="394" ht="15.75" customHeight="1">
       <c r="A394" s="4" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B394" s="4" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C394" s="5" t="s">
         <v>1182</v>
       </c>
-      <c r="C394" s="5" t="s">
+      <c r="D394" s="4" t="s">
         <v>1183</v>
-      </c>
-      <c r="D394" s="4" t="s">
-        <v>1184</v>
       </c>
       <c r="E394" s="4"/>
     </row>
     <row r="395" ht="15.75" customHeight="1">
       <c r="A395" s="4" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B395" s="4" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C395" s="5" t="s">
         <v>1185</v>
       </c>
-      <c r="C395" s="5" t="s">
+      <c r="D395" s="4" t="s">
         <v>1186</v>
-      </c>
-      <c r="D395" s="4" t="s">
-        <v>1187</v>
       </c>
       <c r="E395" s="4"/>
     </row>
     <row r="396" ht="15.75" customHeight="1">
       <c r="A396" s="4" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B396" s="4" t="s">
+        <v>1187</v>
+      </c>
+      <c r="C396" s="5" t="s">
         <v>1188</v>
       </c>
-      <c r="C396" s="5" t="s">
+      <c r="D396" s="4" t="s">
         <v>1189</v>
-      </c>
-      <c r="D396" s="4" t="s">
-        <v>1190</v>
       </c>
       <c r="E396" s="4"/>
     </row>
     <row r="397" ht="15.75" customHeight="1">
       <c r="A397" s="4" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B397" s="4" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C397" s="5" t="s">
         <v>1191</v>
       </c>
-      <c r="C397" s="5" t="s">
+      <c r="D397" s="4" t="s">
         <v>1192</v>
-      </c>
-      <c r="D397" s="4" t="s">
-        <v>1193</v>
       </c>
       <c r="E397" s="4"/>
     </row>
     <row r="398" ht="15.75" customHeight="1">
       <c r="A398" s="4" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B398" s="4" t="s">
+        <v>1193</v>
+      </c>
+      <c r="C398" s="5" t="s">
         <v>1194</v>
       </c>
-      <c r="C398" s="5" t="s">
+      <c r="D398" s="4" t="s">
         <v>1195</v>
-      </c>
-      <c r="D398" s="4" t="s">
-        <v>1196</v>
       </c>
       <c r="E398" s="4"/>
     </row>
     <row r="399" ht="15.75" customHeight="1">
       <c r="A399" s="4" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B399" s="4" t="s">
+        <v>1196</v>
+      </c>
+      <c r="C399" s="5" t="s">
         <v>1197</v>
       </c>
-      <c r="C399" s="5" t="s">
+      <c r="D399" s="4" t="s">
         <v>1198</v>
-      </c>
-      <c r="D399" s="4" t="s">
-        <v>1199</v>
       </c>
       <c r="E399" s="4"/>
     </row>
     <row r="400" ht="15.75" customHeight="1">
       <c r="A400" s="4" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B400" s="4" t="s">
+        <v>1199</v>
+      </c>
+      <c r="C400" s="5" t="s">
         <v>1200</v>
       </c>
-      <c r="C400" s="5" t="s">
+      <c r="D400" s="4" t="s">
         <v>1201</v>
-      </c>
-      <c r="D400" s="4" t="s">
-        <v>1202</v>
       </c>
       <c r="E400" s="4"/>
     </row>
     <row r="401" ht="15.75" customHeight="1">
       <c r="A401" s="4" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B401" s="4" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C401" s="5" t="s">
         <v>1203</v>
       </c>
-      <c r="C401" s="5" t="s">
+      <c r="D401" s="4" t="s">
         <v>1204</v>
-      </c>
-      <c r="D401" s="4" t="s">
-        <v>1205</v>
       </c>
       <c r="E401" s="4"/>
     </row>
     <row r="402" ht="15.75" customHeight="1">
       <c r="A402" s="4" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B402" s="4" t="s">
+        <v>1205</v>
+      </c>
+      <c r="C402" s="5" t="s">
         <v>1206</v>
       </c>
-      <c r="C402" s="5" t="s">
+      <c r="D402" s="4" t="s">
         <v>1207</v>
-      </c>
-      <c r="D402" s="4" t="s">
-        <v>1208</v>
       </c>
       <c r="E402" s="4"/>
     </row>
     <row r="403" ht="15.75" customHeight="1">
       <c r="A403" s="4" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B403" s="4" t="s">
+        <v>1208</v>
+      </c>
+      <c r="C403" s="5" t="s">
         <v>1209</v>
       </c>
-      <c r="C403" s="5" t="s">
+      <c r="D403" s="4" t="s">
         <v>1210</v>
-      </c>
-      <c r="D403" s="4" t="s">
-        <v>1211</v>
       </c>
       <c r="E403" s="4"/>
     </row>
     <row r="404" ht="15.75" customHeight="1">
       <c r="A404" s="4" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B404" s="4" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C404" s="5" t="s">
         <v>1212</v>
       </c>
-      <c r="C404" s="5" t="s">
+      <c r="D404" s="4" t="s">
         <v>1213</v>
-      </c>
-      <c r="D404" s="4" t="s">
-        <v>1214</v>
       </c>
       <c r="E404" s="4"/>
     </row>
     <row r="405" ht="15.75" customHeight="1">
       <c r="A405" s="4" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B405" s="4" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C405" s="5" t="s">
         <v>1215</v>
       </c>
-      <c r="C405" s="5" t="s">
+      <c r="D405" s="4" t="s">
         <v>1216</v>
-      </c>
-      <c r="D405" s="4" t="s">
-        <v>1217</v>
       </c>
       <c r="E405" s="4"/>
     </row>
     <row r="406" ht="15.75" customHeight="1">
       <c r="A406" s="4" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B406" s="4" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C406" s="5" t="s">
         <v>1218</v>
       </c>
-      <c r="C406" s="5" t="s">
+      <c r="D406" s="4" t="s">
         <v>1219</v>
-      </c>
-      <c r="D406" s="4" t="s">
-        <v>1220</v>
       </c>
       <c r="E406" s="4"/>
     </row>
     <row r="407" ht="15.75" customHeight="1">
       <c r="A407" s="4" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B407" s="4" t="s">
+        <v>1220</v>
+      </c>
+      <c r="C407" s="5" t="s">
         <v>1221</v>
       </c>
-      <c r="C407" s="5" t="s">
+      <c r="D407" s="4" t="s">
         <v>1222</v>
-      </c>
-      <c r="D407" s="4" t="s">
-        <v>1223</v>
       </c>
       <c r="E407" s="4"/>
     </row>
     <row r="408" ht="15.75" customHeight="1">
       <c r="A408" s="4" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B408" s="4" t="s">
+        <v>1223</v>
+      </c>
+      <c r="C408" s="5" t="s">
         <v>1224</v>
       </c>
-      <c r="C408" s="5" t="s">
+      <c r="D408" s="4" t="s">
         <v>1225</v>
-      </c>
-      <c r="D408" s="4" t="s">
-        <v>1226</v>
       </c>
       <c r="E408" s="4"/>
     </row>
     <row r="409" ht="15.75" customHeight="1">
       <c r="A409" s="4" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B409" s="4" t="s">
+        <v>1226</v>
+      </c>
+      <c r="C409" s="5" t="s">
         <v>1227</v>
       </c>
-      <c r="C409" s="5" t="s">
+      <c r="D409" s="4" t="s">
         <v>1228</v>
-      </c>
-      <c r="D409" s="4" t="s">
-        <v>1229</v>
       </c>
       <c r="E409" s="4"/>
     </row>
     <row r="410" ht="15.75" customHeight="1">
       <c r="A410" s="4" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B410" s="4" t="s">
+        <v>1229</v>
+      </c>
+      <c r="C410" s="5" t="s">
         <v>1230</v>
       </c>
-      <c r="C410" s="5" t="s">
+      <c r="D410" s="4" t="s">
         <v>1231</v>
-      </c>
-      <c r="D410" s="4" t="s">
-        <v>1232</v>
       </c>
       <c r="E410" s="4"/>
     </row>
     <row r="411" ht="15.75" customHeight="1">
       <c r="A411" s="4" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B411" s="4" t="s">
+        <v>1232</v>
+      </c>
+      <c r="C411" s="5" t="s">
         <v>1233</v>
       </c>
-      <c r="C411" s="5" t="s">
+      <c r="D411" s="4" t="s">
         <v>1234</v>
-      </c>
-      <c r="D411" s="4" t="s">
-        <v>1235</v>
       </c>
       <c r="E411" s="4"/>
     </row>
     <row r="412" ht="15.75" customHeight="1">
       <c r="A412" s="4" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B412" s="4" t="s">
+        <v>1235</v>
+      </c>
+      <c r="C412" s="5" t="s">
         <v>1236</v>
       </c>
-      <c r="C412" s="5" t="s">
+      <c r="D412" s="4" t="s">
         <v>1237</v>
-      </c>
-      <c r="D412" s="4" t="s">
-        <v>1238</v>
       </c>
       <c r="E412" s="4"/>
     </row>
@@ -10818,6 +10810,7 @@
     <row r="1000" ht="15.75" customHeight="1"/>
     <row r="1001" ht="15.75" customHeight="1"/>
   </sheetData>
+  <autoFilter ref="$A$1:$E$412"/>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
